--- a/Data cleaned/values_long_format.xlsx
+++ b/Data cleaned/values_long_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chindanai/Documents/bus_int_sys/machine_learning_project/Data cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Purachai\Desktop\Assignment1_454\Data cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F8D69E20-788A-324D-8216-202ED0BB3ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6229CED-47D5-491E-9C2D-B2E99708E15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values_long_format" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="150">
   <si>
     <t>Country</t>
   </si>
@@ -489,9 +489,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -654,7 +654,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,8 +840,20 @@
         <bgColor rgb="FF5D87A1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -956,6 +968,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1006,11 +1070,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1020,10 +1084,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="44">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="44">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,10 +1129,10 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="DescriptorColumnStyle" xfId="43"/>
+    <cellStyle name="DescriptorColumnStyle" xfId="43" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="HeaderStyle" xfId="42"/>
+    <cellStyle name="HeaderStyle" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -1068,7 +1142,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="NumberStyle" xfId="44"/>
+    <cellStyle name="NumberStyle" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1076,7 +1150,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1130,7 +1204,7 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1142,7 +1216,7 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,19 +1232,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G117" totalsRowShown="0">
-  <autoFilter ref="A1:G117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G117" totalsRowShown="0">
+  <autoFilter ref="A1:G117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
     <sortCondition descending="1" ref="G1:G117"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Country"/>
-    <tableColumn id="2" name="2017" dataDxfId="11"/>
-    <tableColumn id="3" name="2015" dataDxfId="10"/>
-    <tableColumn id="4" name="2013" dataDxfId="9"/>
-    <tableColumn id="5" name="2011" dataDxfId="8"/>
-    <tableColumn id="6" name="region"/>
-    <tableColumn id="7" name="avg" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2017" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2015" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2013" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2011" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="region"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="avg" dataDxfId="8">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[2017]:[2011]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1179,19 +1253,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:G118" totalsRowShown="0">
-  <autoFilter ref="A2:G118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A2:G118" totalsRowShown="0">
+  <autoFilter ref="A2:G118" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G118">
     <sortCondition ref="A2:A118"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Country"/>
-    <tableColumn id="2" name="2017" dataDxfId="7"/>
-    <tableColumn id="3" name="2015" dataDxfId="6"/>
-    <tableColumn id="4" name="2013" dataDxfId="5"/>
-    <tableColumn id="5" name="2011" dataDxfId="4"/>
-    <tableColumn id="6" name="region"/>
-    <tableColumn id="7" name="avg" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="2017" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2015" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2013" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="2011" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="region"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="avg" dataDxfId="3">
       <calculatedColumnFormula>AVERAGE(Table13[[#This Row],[2017]:[2011]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1200,21 +1274,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="I2:Q105" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="HeaderStyle" dataCellStyle="NumberStyle">
-  <autoFilter ref="I2:Q105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="I2:Q105" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="HeaderStyle" dataCellStyle="NumberStyle">
+  <autoFilter ref="I2:Q105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:Q105">
     <sortCondition ref="I2:I105"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Geography" dataDxfId="1" dataCellStyle="DescriptorColumnStyle"/>
-    <tableColumn id="2" name="2011" dataCellStyle="NumberStyle"/>
-    <tableColumn id="3" name="2012" dataCellStyle="NumberStyle"/>
-    <tableColumn id="4" name="2013" dataCellStyle="NumberStyle"/>
-    <tableColumn id="5" name="2014" dataCellStyle="NumberStyle"/>
-    <tableColumn id="6" name="2015" dataCellStyle="NumberStyle"/>
-    <tableColumn id="7" name="2016" dataCellStyle="NumberStyle"/>
-    <tableColumn id="8" name="2017" dataCellStyle="NumberStyle"/>
-    <tableColumn id="9" name="avg" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Geography" dataDxfId="1" dataCellStyle="DescriptorColumnStyle"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="2011" dataCellStyle="NumberStyle"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2012" dataCellStyle="NumberStyle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2013" dataCellStyle="NumberStyle"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2014" dataCellStyle="NumberStyle"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2015" dataCellStyle="NumberStyle"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2016" dataCellStyle="NumberStyle"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2017" dataCellStyle="NumberStyle"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="avg" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(J3:P3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1518,19 +1592,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:G117"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1627,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1577,7 +1651,7 @@
         <v>9304.25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +1675,7 @@
         <v>8292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1699,7 @@
         <v>2749.75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -1649,7 +1723,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1673,7 +1747,7 @@
         <v>2283.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1697,7 +1771,7 @@
         <v>2129.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1721,7 +1795,7 @@
         <v>1927.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1745,7 +1819,7 @@
         <v>1829.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1769,7 +1843,7 @@
         <v>1577.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1867,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1891,7 @@
         <v>1292.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1841,7 +1915,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -1865,7 +1939,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -1889,7 +1963,7 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1913,7 +1987,7 @@
         <v>793.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +2011,7 @@
         <v>695.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +2035,7 @@
         <v>656.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1985,7 +2059,7 @@
         <v>617.25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2083,7 @@
         <v>604.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2107,7 @@
         <v>571.25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2057,7 +2131,7 @@
         <v>555.75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -2081,7 +2155,7 @@
         <v>539.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2105,7 +2179,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2129,7 +2203,7 @@
         <v>526.25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2153,7 +2227,7 @@
         <v>510.75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -2177,7 +2251,7 @@
         <v>457.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -2201,7 +2275,7 @@
         <v>409.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -2225,7 +2299,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2249,7 +2323,7 @@
         <v>400.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2273,7 +2347,7 @@
         <v>382.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2297,7 +2371,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -2321,7 +2395,7 @@
         <v>351.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2345,7 +2419,7 @@
         <v>346.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2443,7 @@
         <v>334.75</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2393,7 +2467,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +2491,7 @@
         <v>303.25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2515,7 @@
         <v>291.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2465,7 +2539,7 @@
         <v>286.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2489,7 +2563,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2513,7 +2587,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2537,7 +2611,7 @@
         <v>231.25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2561,7 +2635,7 @@
         <v>223.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2585,7 +2659,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -2609,7 +2683,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2633,7 +2707,7 @@
         <v>215.25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2657,7 +2731,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2755,7 @@
         <v>201.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -2705,7 +2779,7 @@
         <v>197.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2729,7 +2803,7 @@
         <v>188.75</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2753,7 +2827,7 @@
         <v>181.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -2777,7 +2851,7 @@
         <v>176.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2801,7 +2875,7 @@
         <v>173.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -2825,7 +2899,7 @@
         <v>173.75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2849,7 +2923,7 @@
         <v>162.75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2873,7 +2947,7 @@
         <v>154.25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2897,7 +2971,7 @@
         <v>147.75</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2921,7 +2995,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2945,7 +3019,7 @@
         <v>128.75</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2969,7 +3043,7 @@
         <v>122.75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2993,7 +3067,7 @@
         <v>120.25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3017,7 +3091,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3115,7 @@
         <v>105.75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -3065,7 +3139,7 @@
         <v>104.25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3089,7 +3163,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3187,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -3137,7 +3211,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -3161,7 +3235,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -3185,7 +3259,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3209,7 +3283,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -3233,7 +3307,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3257,7 +3331,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -3281,7 +3355,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -3305,7 +3379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -3329,7 +3403,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -3353,7 +3427,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -3377,7 +3451,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3401,7 +3475,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -3425,7 +3499,7 @@
         <v>67.25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -3449,7 +3523,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>57</v>
       </c>
@@ -3473,7 +3547,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3497,7 +3571,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3521,7 +3595,7 @@
         <v>60.25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3545,7 +3619,7 @@
         <v>60.25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -3569,7 +3643,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3593,7 +3667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3617,7 +3691,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -3641,7 +3715,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -3665,7 +3739,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -3689,7 +3763,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -3713,7 +3787,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -3737,7 +3811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -3761,7 +3835,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -3785,7 +3859,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3809,7 +3883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -3833,7 +3907,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -3857,7 +3931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -3881,7 +3955,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -3905,7 +3979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -3929,7 +4003,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -3953,7 +4027,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -3977,7 +4051,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +4075,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -4025,7 +4099,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -4049,7 +4123,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -4073,7 +4147,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -4097,7 +4171,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -4121,7 +4195,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -4145,7 +4219,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -4169,7 +4243,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -4193,7 +4267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -4217,7 +4291,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4241,7 +4315,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -4265,7 +4339,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -4289,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -4313,7 +4387,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -4346,20 +4420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AN118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4408,8 +4482,56 @@
       <c r="Q2" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>2017</v>
+      </c>
+      <c r="Z2">
+        <v>2015</v>
+      </c>
+      <c r="AA2">
+        <v>2013</v>
+      </c>
+      <c r="AB2">
+        <v>2011</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>2011</v>
+      </c>
+      <c r="AH2">
+        <v>2012</v>
+      </c>
+      <c r="AI2">
+        <v>2013</v>
+      </c>
+      <c r="AJ2">
+        <v>2014</v>
+      </c>
+      <c r="AK2">
+        <v>2015</v>
+      </c>
+      <c r="AL2">
+        <v>2016</v>
+      </c>
+      <c r="AM2">
+        <v>2017</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4457,18 +4579,65 @@
         <v>60716.2</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(J3:P3)</f>
+        <f t="shared" ref="Q3:Q34" si="0">AVERAGE(J3:P3)</f>
         <v>47687.628571428577</v>
       </c>
-      <c r="S3">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3">
+        <v>70</v>
+      </c>
+      <c r="Z3">
+        <v>84</v>
+      </c>
+      <c r="AA3">
+        <v>102</v>
+      </c>
+      <c r="AB3">
+        <v>83</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3">
+        <v>84.75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3">
+        <v>34467.4</v>
+      </c>
+      <c r="AH3">
+        <v>39471.199999999997</v>
+      </c>
+      <c r="AI3">
+        <v>43674.5</v>
+      </c>
+      <c r="AJ3">
+        <v>47388.3</v>
+      </c>
+      <c r="AK3">
+        <v>51814.1</v>
+      </c>
+      <c r="AL3">
+        <v>56281.7</v>
+      </c>
+      <c r="AM3">
+        <v>60716.2</v>
+      </c>
+      <c r="AN3">
+        <v>47687.628571428577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -4516,18 +4685,65 @@
         <v>18746.599999999999</v>
       </c>
       <c r="Q4" s="6">
-        <f>AVERAGE(J4:P4)</f>
+        <f t="shared" si="0"/>
         <v>10975.328571428572</v>
       </c>
-      <c r="S4" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4">
+        <v>308</v>
+      </c>
+      <c r="Z4">
+        <v>554</v>
+      </c>
+      <c r="AA4">
+        <v>950</v>
+      </c>
+      <c r="AB4">
+        <v>657</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4">
+        <v>617.25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG4">
+        <v>4650.8999999999996</v>
+      </c>
+      <c r="AH4">
+        <v>5720.3</v>
+      </c>
+      <c r="AI4">
+        <v>7409.8</v>
+      </c>
+      <c r="AJ4">
+        <v>10065.700000000001</v>
+      </c>
+      <c r="AK4">
+        <v>13213.4</v>
+      </c>
+      <c r="AL4">
+        <v>18214.5</v>
+      </c>
+      <c r="AM4">
+        <v>23968.3</v>
+      </c>
+      <c r="AN4">
+        <v>11891.842857142856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4575,18 +4791,65 @@
         <v>23968.3</v>
       </c>
       <c r="Q5" s="6">
-        <f>AVERAGE(J5:P5)</f>
+        <f t="shared" si="0"/>
         <v>11891.842857142856</v>
       </c>
-      <c r="S5">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
+      <c r="S5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>540</v>
+      </c>
+      <c r="Z5">
+        <v>579</v>
+      </c>
+      <c r="AA5">
+        <v>743</v>
+      </c>
+      <c r="AB5">
+        <v>763</v>
+      </c>
+      <c r="AC5" t="s">
         <v>3</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AD5">
+        <v>656.25</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>639048.1</v>
+      </c>
+      <c r="AH5">
+        <v>657392.30000000005</v>
+      </c>
+      <c r="AI5">
+        <v>693003</v>
+      </c>
+      <c r="AJ5">
+        <v>724372.9</v>
+      </c>
+      <c r="AK5">
+        <v>741755.6</v>
+      </c>
+      <c r="AL5">
+        <v>762327.7</v>
+      </c>
+      <c r="AM5">
+        <v>790413.8</v>
+      </c>
+      <c r="AN5">
+        <v>715473.34285714279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4634,18 +4897,65 @@
         <v>790413.8</v>
       </c>
       <c r="Q6" s="6">
-        <f>AVERAGE(J6:P6)</f>
+        <f t="shared" si="0"/>
         <v>715473.34285714279</v>
       </c>
-      <c r="S6">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6">
+        <v>121</v>
+      </c>
+      <c r="Z6">
+        <v>131</v>
+      </c>
+      <c r="AA6">
+        <v>173</v>
+      </c>
+      <c r="AB6">
+        <v>226</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6">
+        <v>162.75</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG6">
+        <v>198568.5</v>
+      </c>
+      <c r="AH6">
+        <v>206127.6</v>
+      </c>
+      <c r="AI6">
+        <v>206326.39999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>211318.39999999999</v>
+      </c>
+      <c r="AK6">
+        <v>214028.9</v>
+      </c>
+      <c r="AL6">
+        <v>223022.5</v>
+      </c>
+      <c r="AM6">
+        <v>229636.2</v>
+      </c>
+      <c r="AN6">
+        <v>212718.35714285713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4693,18 +5003,65 @@
         <v>229636.2</v>
       </c>
       <c r="Q7" s="6">
-        <f>AVERAGE(J7:P7)</f>
+        <f t="shared" si="0"/>
         <v>212718.35714285713</v>
       </c>
-      <c r="S7">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>50</v>
+      </c>
+      <c r="Z7">
+        <v>90</v>
+      </c>
+      <c r="AA7">
+        <v>103</v>
+      </c>
+      <c r="AB7">
+        <v>67</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7">
+        <v>77.5</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG7">
+        <v>12100.4</v>
+      </c>
+      <c r="AH7">
+        <v>13387.7</v>
+      </c>
+      <c r="AI7">
+        <v>15171.3</v>
+      </c>
+      <c r="AJ7">
+        <v>16581.099999999999</v>
+      </c>
+      <c r="AK7">
+        <v>17582.400000000001</v>
+      </c>
+      <c r="AL7">
+        <v>19983.5</v>
+      </c>
+      <c r="AM7">
+        <v>23225.3</v>
+      </c>
+      <c r="AN7">
+        <v>16861.67142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -4752,18 +5109,65 @@
         <v>23225.3</v>
       </c>
       <c r="Q8" s="6">
-        <f>AVERAGE(J8:P8)</f>
+        <f t="shared" si="0"/>
         <v>16861.67142857143</v>
       </c>
-      <c r="S8">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>34</v>
+      </c>
+      <c r="AA8">
+        <v>27</v>
+      </c>
+      <c r="AB8">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8">
+        <v>14524.8</v>
+      </c>
+      <c r="AH8">
+        <v>15112.9</v>
+      </c>
+      <c r="AI8">
+        <v>17198.7</v>
+      </c>
+      <c r="AJ8">
+        <v>17586</v>
+      </c>
+      <c r="AK8">
+        <v>18491.8</v>
+      </c>
+      <c r="AL8">
+        <v>19097.900000000001</v>
+      </c>
+      <c r="AM8">
+        <v>19704.400000000001</v>
+      </c>
+      <c r="AN8">
+        <v>17388.071428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4811,18 +5215,65 @@
         <v>19704.400000000001</v>
       </c>
       <c r="Q9" s="6">
-        <f>AVERAGE(J9:P9)</f>
+        <f t="shared" si="0"/>
         <v>17388.071428571428</v>
       </c>
-      <c r="S9">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>226</v>
+      </c>
+      <c r="Z9">
+        <v>236</v>
+      </c>
+      <c r="AA9">
+        <v>197</v>
+      </c>
+      <c r="AB9">
+        <v>147</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>201.5</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>68540.600000000006</v>
+      </c>
+      <c r="AH9">
+        <v>78411</v>
+      </c>
+      <c r="AI9">
+        <v>88036.1</v>
+      </c>
+      <c r="AJ9">
+        <v>98314.5</v>
+      </c>
+      <c r="AK9">
+        <v>110726.9</v>
+      </c>
+      <c r="AL9">
+        <v>123994.2</v>
+      </c>
+      <c r="AM9">
+        <v>140115.29999999999</v>
+      </c>
+      <c r="AN9">
+        <v>101162.65714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4870,18 +5321,65 @@
         <v>140115.29999999999</v>
       </c>
       <c r="Q10" s="6">
-        <f>AVERAGE(J10:P10)</f>
+        <f t="shared" si="0"/>
         <v>101162.65714285712</v>
       </c>
-      <c r="S10">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>9</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10">
+        <v>59</v>
+      </c>
+      <c r="Z10">
+        <v>76</v>
+      </c>
+      <c r="AA10">
+        <v>173</v>
+      </c>
+      <c r="AB10">
+        <v>87</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10">
+        <v>98.75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG10">
+        <v>5632.7</v>
+      </c>
+      <c r="AH10">
+        <v>10397.6</v>
+      </c>
+      <c r="AI10">
+        <v>14651.1</v>
+      </c>
+      <c r="AJ10">
+        <v>16876.2</v>
+      </c>
+      <c r="AK10">
+        <v>18461.3</v>
+      </c>
+      <c r="AL10">
+        <v>19461.2</v>
+      </c>
+      <c r="AM10">
+        <v>21568.1</v>
+      </c>
+      <c r="AN10">
+        <v>15292.600000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4929,18 +5427,65 @@
         <v>21568.1</v>
       </c>
       <c r="Q11" s="6">
-        <f>AVERAGE(J11:P11)</f>
+        <f t="shared" si="0"/>
         <v>15292.600000000002</v>
       </c>
-      <c r="S11">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11">
+        <v>182</v>
+      </c>
+      <c r="Z11">
+        <v>190</v>
+      </c>
+      <c r="AA11">
+        <v>237</v>
+      </c>
+      <c r="AB11">
+        <v>252</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD11">
+        <v>215.25</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG11">
+        <v>239242.2</v>
+      </c>
+      <c r="AH11">
+        <v>246085.8</v>
+      </c>
+      <c r="AI11">
+        <v>249272.7</v>
+      </c>
+      <c r="AJ11">
+        <v>252051.20000000001</v>
+      </c>
+      <c r="AK11">
+        <v>255734.1</v>
+      </c>
+      <c r="AL11">
+        <v>263138.40000000002</v>
+      </c>
+      <c r="AM11">
+        <v>273441.90000000002</v>
+      </c>
+      <c r="AN11">
+        <v>254138.04285714283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4988,18 +5533,65 @@
         <v>273441.90000000002</v>
       </c>
       <c r="Q12" s="6">
-        <f>AVERAGE(J12:P12)</f>
+        <f t="shared" si="0"/>
         <v>254138.04285714283</v>
       </c>
-      <c r="S12">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>11</v>
-      </c>
-      <c r="T12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12">
+        <v>94</v>
+      </c>
+      <c r="Z12">
+        <v>98</v>
+      </c>
+      <c r="AA12">
+        <v>95</v>
+      </c>
+      <c r="AB12">
+        <v>59</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12">
+        <v>86.5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12">
+        <v>14111.4</v>
+      </c>
+      <c r="AH12">
+        <v>15341</v>
+      </c>
+      <c r="AI12">
+        <v>17310.099999999999</v>
+      </c>
+      <c r="AJ12">
+        <v>19398.599999999999</v>
+      </c>
+      <c r="AK12">
+        <v>19838.7</v>
+      </c>
+      <c r="AL12">
+        <v>20896.400000000001</v>
+      </c>
+      <c r="AM12">
+        <v>23054.3</v>
+      </c>
+      <c r="AN12">
+        <v>18564.357142857145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -5047,18 +5639,65 @@
         <v>23054.3</v>
       </c>
       <c r="Q13" s="6">
-        <f>AVERAGE(J13:P13)</f>
+        <f t="shared" si="0"/>
         <v>18564.357142857145</v>
       </c>
-      <c r="S13">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>12</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13">
+        <v>1665</v>
+      </c>
+      <c r="Z13">
+        <v>1770</v>
+      </c>
+      <c r="AA13">
+        <v>2851</v>
+      </c>
+      <c r="AB13">
+        <v>2848</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13">
+        <v>2283.5</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG13">
+        <v>566313</v>
+      </c>
+      <c r="AH13">
+        <v>632829.5</v>
+      </c>
+      <c r="AI13">
+        <v>710742.3</v>
+      </c>
+      <c r="AJ13">
+        <v>780402.9</v>
+      </c>
+      <c r="AK13">
+        <v>830414.3</v>
+      </c>
+      <c r="AL13">
+        <v>881697.1</v>
+      </c>
+      <c r="AM13">
+        <v>941719.5</v>
+      </c>
+      <c r="AN13">
+        <v>763445.51428571425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5106,18 +5745,65 @@
         <v>13477.2</v>
       </c>
       <c r="Q14" s="6">
-        <f>AVERAGE(J14:P14)</f>
+        <f t="shared" si="0"/>
         <v>12738.72857142857</v>
       </c>
-      <c r="S14" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14">
+        <v>72</v>
+      </c>
+      <c r="Z14">
+        <v>78</v>
+      </c>
+      <c r="AA14">
+        <v>101</v>
+      </c>
+      <c r="AB14">
+        <v>102</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14">
+        <v>88.25</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14">
+        <v>27266.2</v>
+      </c>
+      <c r="AH14">
+        <v>27497.3</v>
+      </c>
+      <c r="AI14">
+        <v>27896.6</v>
+      </c>
+      <c r="AJ14">
+        <v>28374.799999999999</v>
+      </c>
+      <c r="AK14">
+        <v>29534.9</v>
+      </c>
+      <c r="AL14">
+        <v>30797.200000000001</v>
+      </c>
+      <c r="AM14">
+        <v>33075.800000000003</v>
+      </c>
+      <c r="AN14">
+        <v>29206.114285714291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5165,18 +5851,65 @@
         <v>941719.5</v>
       </c>
       <c r="Q15" s="6">
-        <f>AVERAGE(J15:P15)</f>
+        <f t="shared" si="0"/>
         <v>763445.51428571425</v>
       </c>
-      <c r="S15">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15">
+        <v>20</v>
+      </c>
+      <c r="Z15">
+        <v>21</v>
+      </c>
+      <c r="AA15">
+        <v>9</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD15">
+        <v>14.75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG15">
+        <v>18637.5</v>
+      </c>
+      <c r="AH15">
+        <v>19579.7</v>
+      </c>
+      <c r="AI15">
+        <v>21469</v>
+      </c>
+      <c r="AJ15">
+        <v>22885</v>
+      </c>
+      <c r="AK15">
+        <v>24093.8</v>
+      </c>
+      <c r="AL15">
+        <v>24953.200000000001</v>
+      </c>
+      <c r="AM15">
+        <v>25936.799999999999</v>
+      </c>
+      <c r="AN15">
+        <v>22507.857142857141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -5224,18 +5957,65 @@
         <v>33075.800000000003</v>
       </c>
       <c r="Q16" s="6">
-        <f>AVERAGE(J16:P16)</f>
+        <f t="shared" si="0"/>
         <v>29206.114285714291</v>
       </c>
-      <c r="S16">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>17</v>
-      </c>
-      <c r="T16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16">
+        <v>819</v>
+      </c>
+      <c r="Z16">
+        <v>893</v>
+      </c>
+      <c r="AA16">
+        <v>1089</v>
+      </c>
+      <c r="AB16">
+        <v>1141</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD16">
+        <v>985.5</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16">
+        <v>712713.4</v>
+      </c>
+      <c r="AH16">
+        <v>741718.3</v>
+      </c>
+      <c r="AI16">
+        <v>775455.4</v>
+      </c>
+      <c r="AJ16">
+        <v>801280.2</v>
+      </c>
+      <c r="AK16">
+        <v>837004.80000000005</v>
+      </c>
+      <c r="AL16">
+        <v>839136.8</v>
+      </c>
+      <c r="AM16">
+        <v>881072.2</v>
+      </c>
+      <c r="AN16">
+        <v>798340.15714285709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5283,18 +6063,65 @@
         <v>16650.900000000001</v>
       </c>
       <c r="Q17" s="6">
-        <f>AVERAGE(J17:P17)</f>
+        <f t="shared" si="0"/>
         <v>13466.185714285713</v>
       </c>
-      <c r="S17" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17">
+        <v>283</v>
+      </c>
+      <c r="Z17">
+        <v>296</v>
+      </c>
+      <c r="AA17">
+        <v>378</v>
+      </c>
+      <c r="AB17">
+        <v>382</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17">
+        <v>334.75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG17">
+        <v>87706.6</v>
+      </c>
+      <c r="AH17">
+        <v>98764.5</v>
+      </c>
+      <c r="AI17">
+        <v>106215.4</v>
+      </c>
+      <c r="AJ17">
+        <v>114124.9</v>
+      </c>
+      <c r="AK17">
+        <v>121376.5</v>
+      </c>
+      <c r="AL17">
+        <v>131719.5</v>
+      </c>
+      <c r="AM17">
+        <v>136309.29999999999</v>
+      </c>
+      <c r="AN17">
+        <v>113745.24285714285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5342,18 +6169,65 @@
         <v>25936.799999999999</v>
       </c>
       <c r="Q18" s="6">
-        <f>AVERAGE(J18:P18)</f>
+        <f t="shared" si="0"/>
         <v>22507.857142857141</v>
       </c>
-      <c r="S18">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>18</v>
-      </c>
-      <c r="T18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>6842</v>
+      </c>
+      <c r="Z18">
+        <v>8657</v>
+      </c>
+      <c r="AA18">
+        <v>8767</v>
+      </c>
+      <c r="AB18">
+        <v>8902</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>8292</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18">
+        <v>3881003.1</v>
+      </c>
+      <c r="AH18">
+        <v>4352694.4000000004</v>
+      </c>
+      <c r="AI18">
+        <v>4824248.7</v>
+      </c>
+      <c r="AJ18">
+        <v>5274231.8</v>
+      </c>
+      <c r="AK18">
+        <v>5715663.2999999998</v>
+      </c>
+      <c r="AL18">
+        <v>6227634.0999999996</v>
+      </c>
+      <c r="AM18">
+        <v>6905378.4000000004</v>
+      </c>
+      <c r="AN18">
+        <v>5311550.5428571422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5401,18 +6275,65 @@
         <v>881072.2</v>
       </c>
       <c r="Q19" s="6">
-        <f>AVERAGE(J19:P19)</f>
+        <f t="shared" si="0"/>
         <v>798340.15714285709</v>
       </c>
-      <c r="S19">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>19</v>
-      </c>
-      <c r="T19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y19">
+        <v>241</v>
+      </c>
+      <c r="Z19">
+        <v>281</v>
+      </c>
+      <c r="AA19">
+        <v>396</v>
+      </c>
+      <c r="AB19">
+        <v>295</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19">
+        <v>303.25</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG19">
+        <v>98974.9</v>
+      </c>
+      <c r="AH19">
+        <v>105834.6</v>
+      </c>
+      <c r="AI19">
+        <v>114654.1</v>
+      </c>
+      <c r="AJ19">
+        <v>124771.7</v>
+      </c>
+      <c r="AK19">
+        <v>136790.1</v>
+      </c>
+      <c r="AL19">
+        <v>145394.1</v>
+      </c>
+      <c r="AM19">
+        <v>156324.79999999999</v>
+      </c>
+      <c r="AN19">
+        <v>126106.32857142857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -5460,18 +6381,65 @@
         <v>136309.29999999999</v>
       </c>
       <c r="Q20" s="6">
-        <f>AVERAGE(J20:P20)</f>
+        <f t="shared" si="0"/>
         <v>113745.24285714285</v>
       </c>
-      <c r="S20">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>20</v>
-      </c>
-      <c r="T20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20">
+        <v>80</v>
+      </c>
+      <c r="Z20">
+        <v>90</v>
+      </c>
+      <c r="AA20">
+        <v>98</v>
+      </c>
+      <c r="AB20">
+        <v>62</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20">
+        <v>82.5</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20">
+        <v>25655.9</v>
+      </c>
+      <c r="AH20">
+        <v>27875.3</v>
+      </c>
+      <c r="AI20">
+        <v>29723</v>
+      </c>
+      <c r="AJ20">
+        <v>32315</v>
+      </c>
+      <c r="AK20">
+        <v>34234.5</v>
+      </c>
+      <c r="AL20">
+        <v>37488.5</v>
+      </c>
+      <c r="AM20">
+        <v>41962.9</v>
+      </c>
+      <c r="AN20">
+        <v>32750.728571428572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -5519,18 +6487,65 @@
         <v>6905378.4000000004</v>
       </c>
       <c r="Q21" s="6">
-        <f>AVERAGE(J21:P21)</f>
+        <f t="shared" si="0"/>
         <v>5311550.5428571422</v>
       </c>
-      <c r="S21">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>21</v>
-      </c>
-      <c r="T21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21">
+        <v>48</v>
+      </c>
+      <c r="Z21">
+        <v>49</v>
+      </c>
+      <c r="AA21">
+        <v>64</v>
+      </c>
+      <c r="AB21">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21">
+        <v>58.75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG21">
+        <v>29354.1</v>
+      </c>
+      <c r="AH21">
+        <v>29233</v>
+      </c>
+      <c r="AI21">
+        <v>29084.799999999999</v>
+      </c>
+      <c r="AJ21">
+        <v>28798.2</v>
+      </c>
+      <c r="AK21">
+        <v>29585.5</v>
+      </c>
+      <c r="AL21">
+        <v>30506.9</v>
+      </c>
+      <c r="AM21">
+        <v>31565.599999999999</v>
+      </c>
+      <c r="AN21">
+        <v>29732.585714285709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -5578,18 +6593,65 @@
         <v>156324.79999999999</v>
       </c>
       <c r="Q22" s="6">
-        <f>AVERAGE(J22:P22)</f>
+        <f t="shared" si="0"/>
         <v>126106.32857142857</v>
       </c>
-      <c r="S22">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>22</v>
-      </c>
-      <c r="T22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22">
+        <v>149</v>
+      </c>
+      <c r="Z22">
+        <v>150</v>
+      </c>
+      <c r="AA22">
+        <v>182</v>
+      </c>
+      <c r="AB22">
+        <v>214</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD22">
+        <v>173.75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22">
+        <v>99793.600000000006</v>
+      </c>
+      <c r="AH22">
+        <v>101233</v>
+      </c>
+      <c r="AI22">
+        <v>101387.4</v>
+      </c>
+      <c r="AJ22">
+        <v>104859.8</v>
+      </c>
+      <c r="AK22">
+        <v>108723.4</v>
+      </c>
+      <c r="AL22">
+        <v>112446.9</v>
+      </c>
+      <c r="AM22">
+        <v>120080.8</v>
+      </c>
+      <c r="AN22">
+        <v>106932.12857142858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -5637,18 +6699,65 @@
         <v>41962.9</v>
       </c>
       <c r="Q23" s="6">
-        <f>AVERAGE(J23:P23)</f>
+        <f t="shared" si="0"/>
         <v>32750.728571428572</v>
       </c>
-      <c r="S23">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>23</v>
-      </c>
-      <c r="T23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y23">
+        <v>167</v>
+      </c>
+      <c r="Z23">
+        <v>176</v>
+      </c>
+      <c r="AA23">
+        <v>224</v>
+      </c>
+      <c r="AB23">
+        <v>222</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD23">
+        <v>197.25</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG23">
+        <v>126168.4</v>
+      </c>
+      <c r="AH23">
+        <v>128586.4</v>
+      </c>
+      <c r="AI23">
+        <v>131505.5</v>
+      </c>
+      <c r="AJ23">
+        <v>133084.29999999999</v>
+      </c>
+      <c r="AK23">
+        <v>138846.5</v>
+      </c>
+      <c r="AL23">
+        <v>145119.4</v>
+      </c>
+      <c r="AM23">
+        <v>149654.1</v>
+      </c>
+      <c r="AN23">
+        <v>136137.79999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -5696,18 +6805,65 @@
         <v>35860.400000000001</v>
       </c>
       <c r="Q24" s="6">
-        <f>AVERAGE(J24:P24)</f>
+        <f t="shared" si="0"/>
         <v>26061.485714285714</v>
       </c>
-      <c r="S24" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24">
+        <v>74</v>
+      </c>
+      <c r="Z24">
+        <v>84</v>
+      </c>
+      <c r="AA24">
+        <v>73</v>
+      </c>
+      <c r="AB24">
+        <v>93</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD24">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG24">
+        <v>33305.699999999997</v>
+      </c>
+      <c r="AH24">
+        <v>36102.9</v>
+      </c>
+      <c r="AI24">
+        <v>39011.4</v>
+      </c>
+      <c r="AJ24">
+        <v>43405.9</v>
+      </c>
+      <c r="AK24">
+        <v>48157.2</v>
+      </c>
+      <c r="AL24">
+        <v>51006</v>
+      </c>
+      <c r="AM24">
+        <v>54551.5</v>
+      </c>
+      <c r="AN24">
+        <v>43648.657142857141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5755,18 +6911,65 @@
         <v>31565.599999999999</v>
       </c>
       <c r="Q25" s="6">
-        <f>AVERAGE(J25:P25)</f>
+        <f t="shared" si="0"/>
         <v>29732.585714285709</v>
       </c>
-      <c r="S25">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>24</v>
-      </c>
-      <c r="T25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25">
+        <v>132</v>
+      </c>
+      <c r="Z25">
+        <v>137</v>
+      </c>
+      <c r="AA25">
+        <v>130</v>
+      </c>
+      <c r="AB25">
+        <v>92</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD25">
+        <v>122.75</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>54000.9</v>
+      </c>
+      <c r="AH25">
+        <v>58661</v>
+      </c>
+      <c r="AI25">
+        <v>61911.3</v>
+      </c>
+      <c r="AJ25">
+        <v>66720.5</v>
+      </c>
+      <c r="AK25">
+        <v>68072.5</v>
+      </c>
+      <c r="AL25">
+        <v>69023.7</v>
+      </c>
+      <c r="AM25">
+        <v>72266.2</v>
+      </c>
+      <c r="AN25">
+        <v>64379.442857142865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5814,18 +7017,65 @@
         <v>120080.8</v>
       </c>
       <c r="Q26" s="6">
-        <f>AVERAGE(J26:P26)</f>
+        <f t="shared" si="0"/>
         <v>106932.12857142858</v>
       </c>
-      <c r="S26">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>26</v>
-      </c>
-      <c r="T26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y26">
+        <v>64</v>
+      </c>
+      <c r="Z26">
+        <v>157</v>
+      </c>
+      <c r="AA26">
+        <v>198</v>
+      </c>
+      <c r="AB26">
+        <v>172</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD26">
+        <v>147.75</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG26">
+        <v>36469.300000000003</v>
+      </c>
+      <c r="AH26">
+        <v>45631.4</v>
+      </c>
+      <c r="AI26">
+        <v>50705.599999999999</v>
+      </c>
+      <c r="AJ26">
+        <v>60250.3</v>
+      </c>
+      <c r="AK26">
+        <v>67987.7</v>
+      </c>
+      <c r="AL26">
+        <v>75741.5</v>
+      </c>
+      <c r="AM26">
+        <v>105405.2</v>
+      </c>
+      <c r="AN26">
+        <v>63170.142857142862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -5873,18 +7123,65 @@
         <v>149654.1</v>
       </c>
       <c r="Q27" s="6">
-        <f>AVERAGE(J27:P27)</f>
+        <f t="shared" si="0"/>
         <v>136137.79999999999</v>
       </c>
-      <c r="S27">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>27</v>
-      </c>
-      <c r="T27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27">
+        <v>61</v>
+      </c>
+      <c r="Z27">
+        <v>63</v>
+      </c>
+      <c r="AA27">
+        <v>72</v>
+      </c>
+      <c r="AB27">
+        <v>58</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27">
+        <v>63.5</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG27">
+        <v>23203</v>
+      </c>
+      <c r="AH27">
+        <v>24505.8</v>
+      </c>
+      <c r="AI27">
+        <v>25599.599999999999</v>
+      </c>
+      <c r="AJ27">
+        <v>26184</v>
+      </c>
+      <c r="AK27">
+        <v>26847.7</v>
+      </c>
+      <c r="AL27">
+        <v>27403.4</v>
+      </c>
+      <c r="AM27">
+        <v>28379.4</v>
+      </c>
+      <c r="AN27">
+        <v>26017.557142857142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5932,18 +7229,65 @@
         <v>54551.5</v>
       </c>
       <c r="Q28" s="6">
-        <f>AVERAGE(J28:P28)</f>
+        <f t="shared" si="0"/>
         <v>43648.657142857141</v>
       </c>
-      <c r="S28">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>28</v>
-      </c>
-      <c r="T28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28">
+        <v>16</v>
+      </c>
+      <c r="Z28">
+        <v>16</v>
+      </c>
+      <c r="AA28">
+        <v>20</v>
+      </c>
+      <c r="AB28">
+        <v>25</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD28">
+        <v>19.25</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28">
+        <v>9621.7999999999993</v>
+      </c>
+      <c r="AH28">
+        <v>9903.4</v>
+      </c>
+      <c r="AI28">
+        <v>10774.2</v>
+      </c>
+      <c r="AJ28">
+        <v>11362.4</v>
+      </c>
+      <c r="AK28">
+        <v>11999.4</v>
+      </c>
+      <c r="AL28">
+        <v>12672.1</v>
+      </c>
+      <c r="AM28">
+        <v>13731.7</v>
+      </c>
+      <c r="AN28">
+        <v>11437.857142857143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5991,18 +7335,65 @@
         <v>72266.2</v>
       </c>
       <c r="Q29" s="6">
-        <f>AVERAGE(J29:P29)</f>
+        <f t="shared" si="0"/>
         <v>64379.442857142865</v>
       </c>
-      <c r="S29">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>29</v>
-      </c>
-      <c r="T29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29">
+        <v>166</v>
+      </c>
+      <c r="Z29">
+        <v>171</v>
+      </c>
+      <c r="AA29">
+        <v>208</v>
+      </c>
+      <c r="AB29">
+        <v>210</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD29">
+        <v>188.75</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG29">
+        <v>118323.6</v>
+      </c>
+      <c r="AH29">
+        <v>121758.2</v>
+      </c>
+      <c r="AI29">
+        <v>124850</v>
+      </c>
+      <c r="AJ29">
+        <v>126285</v>
+      </c>
+      <c r="AK29">
+        <v>128477.1</v>
+      </c>
+      <c r="AL29">
+        <v>131107.1</v>
+      </c>
+      <c r="AM29">
+        <v>134206.5</v>
+      </c>
+      <c r="AN29">
+        <v>126429.64285714286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -6050,18 +7441,65 @@
         <v>105405.2</v>
       </c>
       <c r="Q30" s="6">
-        <f>AVERAGE(J30:P30)</f>
+        <f t="shared" si="0"/>
         <v>63170.142857142862</v>
       </c>
-      <c r="S30">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>30</v>
-      </c>
-      <c r="T30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y30">
+        <v>1996</v>
+      </c>
+      <c r="Z30">
+        <v>2101</v>
+      </c>
+      <c r="AA30">
+        <v>2685</v>
+      </c>
+      <c r="AB30">
+        <v>2754</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD30">
+        <v>2384</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG30">
+        <v>1397120.7</v>
+      </c>
+      <c r="AH30">
+        <v>1411136</v>
+      </c>
+      <c r="AI30">
+        <v>1403712</v>
+      </c>
+      <c r="AJ30">
+        <v>1422189.2</v>
+      </c>
+      <c r="AK30">
+        <v>1437998.4</v>
+      </c>
+      <c r="AL30">
+        <v>1463735.2</v>
+      </c>
+      <c r="AM30">
+        <v>1501105.8</v>
+      </c>
+      <c r="AN30">
+        <v>1433856.7571428572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -6109,18 +7547,65 @@
         <v>28379.4</v>
       </c>
       <c r="Q31" s="6">
-        <f>AVERAGE(J31:P31)</f>
+        <f t="shared" si="0"/>
         <v>26017.557142857142</v>
       </c>
-      <c r="S31">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>31</v>
-      </c>
-      <c r="T31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31">
+        <v>22</v>
+      </c>
+      <c r="Z31">
+        <v>25</v>
+      </c>
+      <c r="AA31">
+        <v>40</v>
+      </c>
+      <c r="AB31">
+        <v>52</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD31">
+        <v>34.75</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG31">
+        <v>7149.7</v>
+      </c>
+      <c r="AH31">
+        <v>7487.4</v>
+      </c>
+      <c r="AI31">
+        <v>7559</v>
+      </c>
+      <c r="AJ31">
+        <v>8064.4</v>
+      </c>
+      <c r="AK31">
+        <v>8807.1</v>
+      </c>
+      <c r="AL31">
+        <v>8557.9</v>
+      </c>
+      <c r="AM31">
+        <v>9824.6</v>
+      </c>
+      <c r="AN31">
+        <v>8207.1571428571424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -6168,18 +7653,65 @@
         <v>13731.7</v>
       </c>
       <c r="Q32" s="6">
-        <f>AVERAGE(J32:P32)</f>
+        <f t="shared" si="0"/>
         <v>11437.857142857143</v>
       </c>
-      <c r="S32">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>32</v>
-      </c>
-      <c r="T32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y32">
+        <v>1566</v>
+      </c>
+      <c r="Z32">
+        <v>1720</v>
+      </c>
+      <c r="AA32">
+        <v>2158</v>
+      </c>
+      <c r="AB32">
+        <v>2265</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD32">
+        <v>1927.25</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG32">
+        <v>1803375.3</v>
+      </c>
+      <c r="AH32">
+        <v>1849269.9</v>
+      </c>
+      <c r="AI32">
+        <v>1880873</v>
+      </c>
+      <c r="AJ32">
+        <v>1929183.6</v>
+      </c>
+      <c r="AK32">
+        <v>1982840.7</v>
+      </c>
+      <c r="AL32">
+        <v>2049679.8</v>
+      </c>
+      <c r="AM32">
+        <v>2117474.6</v>
+      </c>
+      <c r="AN32">
+        <v>1944670.9857142859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -6227,18 +7759,65 @@
         <v>23759.8</v>
       </c>
       <c r="Q33" s="6">
-        <f>AVERAGE(J33:P33)</f>
+        <f t="shared" si="0"/>
         <v>15135.2</v>
       </c>
-      <c r="S33" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33">
+        <v>173</v>
+      </c>
+      <c r="Z33">
+        <v>189</v>
+      </c>
+      <c r="AA33">
+        <v>220</v>
+      </c>
+      <c r="AB33">
+        <v>343</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD33">
+        <v>231.25</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG33">
+        <v>151717.9</v>
+      </c>
+      <c r="AH33">
+        <v>135638.29999999999</v>
+      </c>
+      <c r="AI33">
+        <v>126715.5</v>
+      </c>
+      <c r="AJ33">
+        <v>126585.7</v>
+      </c>
+      <c r="AK33">
+        <v>126182.3</v>
+      </c>
+      <c r="AL33">
+        <v>124571</v>
+      </c>
+      <c r="AM33">
+        <v>124082.2</v>
+      </c>
+      <c r="AN33">
+        <v>130784.69999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -6286,18 +7865,65 @@
         <v>134206.5</v>
       </c>
       <c r="Q34" s="6">
-        <f>AVERAGE(J34:P34)</f>
+        <f t="shared" si="0"/>
         <v>126429.64285714286</v>
       </c>
-      <c r="S34">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>33</v>
-      </c>
-      <c r="T34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y34">
+        <v>165</v>
+      </c>
+      <c r="Z34">
+        <v>169</v>
+      </c>
+      <c r="AA34">
+        <v>167</v>
+      </c>
+      <c r="AB34">
+        <v>116</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD34">
+        <v>154.25</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG34">
+        <v>40199.300000000003</v>
+      </c>
+      <c r="AH34">
+        <v>43451.1</v>
+      </c>
+      <c r="AI34">
+        <v>47025.2</v>
+      </c>
+      <c r="AJ34">
+        <v>50196.5</v>
+      </c>
+      <c r="AK34">
+        <v>53092.6</v>
+      </c>
+      <c r="AL34">
+        <v>56383.9</v>
+      </c>
+      <c r="AM34">
+        <v>59493.2</v>
+      </c>
+      <c r="AN34">
+        <v>49977.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -6345,18 +7971,65 @@
         <v>1501105.8</v>
       </c>
       <c r="Q35" s="6">
-        <f>AVERAGE(J35:P35)</f>
+        <f t="shared" ref="Q35:Q66" si="1">AVERAGE(J35:P35)</f>
         <v>1433856.7571428572</v>
       </c>
-      <c r="S35">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>34</v>
-      </c>
-      <c r="T35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35">
+        <v>32</v>
+      </c>
+      <c r="Z35">
+        <v>36</v>
+      </c>
+      <c r="AA35">
+        <v>38</v>
+      </c>
+      <c r="AB35">
+        <v>24</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD35">
+        <v>32.5</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG35">
+        <v>10792.3</v>
+      </c>
+      <c r="AH35">
+        <v>11532.9</v>
+      </c>
+      <c r="AI35">
+        <v>12463.4</v>
+      </c>
+      <c r="AJ35">
+        <v>13360.8</v>
+      </c>
+      <c r="AK35">
+        <v>14365.8</v>
+      </c>
+      <c r="AL35">
+        <v>15385.1</v>
+      </c>
+      <c r="AM35">
+        <v>16969.7</v>
+      </c>
+      <c r="AN35">
+        <v>13552.857142857143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -6404,18 +8077,65 @@
         <v>9824.6</v>
       </c>
       <c r="Q36" s="6">
-        <f>AVERAGE(J36:P36)</f>
+        <f t="shared" si="1"/>
         <v>8207.1571428571424</v>
       </c>
-      <c r="S36">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>36</v>
-      </c>
-      <c r="T36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y36">
+        <v>104</v>
+      </c>
+      <c r="Z36">
+        <v>107</v>
+      </c>
+      <c r="AA36">
+        <v>127</v>
+      </c>
+      <c r="AB36">
+        <v>143</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD36">
+        <v>120.25</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36">
+        <v>46660.800000000003</v>
+      </c>
+      <c r="AH36">
+        <v>47599</v>
+      </c>
+      <c r="AI36">
+        <v>49228.1</v>
+      </c>
+      <c r="AJ36">
+        <v>51219</v>
+      </c>
+      <c r="AK36">
+        <v>53216.7</v>
+      </c>
+      <c r="AL36">
+        <v>55825</v>
+      </c>
+      <c r="AM36">
+        <v>61068.800000000003</v>
+      </c>
+      <c r="AN36">
+        <v>52116.771428571425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -6463,18 +8183,65 @@
         <v>2117474.6</v>
       </c>
       <c r="Q37" s="6">
-        <f>AVERAGE(J37:P37)</f>
+        <f t="shared" si="1"/>
         <v>1944670.9857142859</v>
       </c>
-      <c r="S37">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>37</v>
-      </c>
-      <c r="T37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>2474</v>
+      </c>
+      <c r="Z37">
+        <v>2684</v>
+      </c>
+      <c r="AA37">
+        <v>2911</v>
+      </c>
+      <c r="AB37">
+        <v>2930</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>2749.75</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG37">
+        <v>851639.2</v>
+      </c>
+      <c r="AH37">
+        <v>966193</v>
+      </c>
+      <c r="AI37">
+        <v>1090783.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1191617.5</v>
+      </c>
+      <c r="AK37">
+        <v>1305245.3</v>
+      </c>
+      <c r="AL37">
+        <v>1449115.7</v>
+      </c>
+      <c r="AM37">
+        <v>1608509.7</v>
+      </c>
+      <c r="AN37">
+        <v>1209014.8857142855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -6522,18 +8289,65 @@
         <v>17925.2</v>
       </c>
       <c r="Q38" s="6">
-        <f>AVERAGE(J38:P38)</f>
+        <f t="shared" si="1"/>
         <v>10511.671428571428</v>
       </c>
-      <c r="S38" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="X38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y38">
+        <v>1095</v>
+      </c>
+      <c r="Z38">
+        <v>1145</v>
+      </c>
+      <c r="AA38">
+        <v>1463</v>
+      </c>
+      <c r="AB38">
+        <v>1467</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>1292.5</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38">
+        <v>314017.40000000002</v>
+      </c>
+      <c r="AH38">
+        <v>351529.9</v>
+      </c>
+      <c r="AI38">
+        <v>392680.2</v>
+      </c>
+      <c r="AJ38">
+        <v>437464.8</v>
+      </c>
+      <c r="AK38">
+        <v>477263.4</v>
+      </c>
+      <c r="AL38">
+        <v>516498.3</v>
+      </c>
+      <c r="AM38">
+        <v>564981.9</v>
+      </c>
+      <c r="AN38">
+        <v>436347.98571428569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -6581,18 +8395,65 @@
         <v>124082.2</v>
       </c>
       <c r="Q39" s="6">
-        <f>AVERAGE(J39:P39)</f>
+        <f t="shared" si="1"/>
         <v>130784.69999999998</v>
       </c>
-      <c r="S39">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>38</v>
-      </c>
-      <c r="T39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S39" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y39">
+        <v>107</v>
+      </c>
+      <c r="Z39">
+        <v>120</v>
+      </c>
+      <c r="AA39">
+        <v>116</v>
+      </c>
+      <c r="AB39">
+        <v>172</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD39">
+        <v>128.75</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG39">
+        <v>73647.899999999994</v>
+      </c>
+      <c r="AH39">
+        <v>101160.6</v>
+      </c>
+      <c r="AI39">
+        <v>101975.5</v>
+      </c>
+      <c r="AJ39">
+        <v>109438.8</v>
+      </c>
+      <c r="AK39">
+        <v>98057.9</v>
+      </c>
+      <c r="AL39">
+        <v>100571.9</v>
+      </c>
+      <c r="AM39">
+        <v>103591.7</v>
+      </c>
+      <c r="AN39">
+        <v>98349.185714285704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -6640,18 +8501,65 @@
         <v>59493.2</v>
       </c>
       <c r="Q40" s="6">
-        <f>AVERAGE(J40:P40)</f>
+        <f t="shared" si="1"/>
         <v>49977.4</v>
       </c>
-      <c r="S40">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>39</v>
-      </c>
-      <c r="T40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y40">
+        <v>79</v>
+      </c>
+      <c r="Z40">
+        <v>87</v>
+      </c>
+      <c r="AA40">
+        <v>107</v>
+      </c>
+      <c r="AB40">
+        <v>144</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD40">
+        <v>104.25</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG40">
+        <v>90002.4</v>
+      </c>
+      <c r="AH40">
+        <v>92177</v>
+      </c>
+      <c r="AI40">
+        <v>91935.9</v>
+      </c>
+      <c r="AJ40">
+        <v>93197.6</v>
+      </c>
+      <c r="AK40">
+        <v>98080.7</v>
+      </c>
+      <c r="AL40">
+        <v>103021.2</v>
+      </c>
+      <c r="AM40">
+        <v>109625.3</v>
+      </c>
+      <c r="AN40">
+        <v>96862.871428571438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -6699,18 +8607,65 @@
         <v>16969.7</v>
       </c>
       <c r="Q41" s="6">
-        <f>AVERAGE(J41:P41)</f>
+        <f t="shared" si="1"/>
         <v>13552.857142857143</v>
       </c>
-      <c r="S41">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>40</v>
-      </c>
-      <c r="T41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y41">
+        <v>165</v>
+      </c>
+      <c r="Z41">
+        <v>161</v>
+      </c>
+      <c r="AA41">
+        <v>177</v>
+      </c>
+      <c r="AB41">
+        <v>192</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD41">
+        <v>173.75</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG41">
+        <v>169643.6</v>
+      </c>
+      <c r="AH41">
+        <v>177311.9</v>
+      </c>
+      <c r="AI41">
+        <v>190562.4</v>
+      </c>
+      <c r="AJ41">
+        <v>200981.2</v>
+      </c>
+      <c r="AK41">
+        <v>207809.5</v>
+      </c>
+      <c r="AL41">
+        <v>218669.5</v>
+      </c>
+      <c r="AM41">
+        <v>224460</v>
+      </c>
+      <c r="AN41">
+        <v>198491.15714285715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6758,18 +8713,65 @@
         <v>279337.5</v>
       </c>
       <c r="Q42" s="6">
-        <f>AVERAGE(J42:P42)</f>
+        <f t="shared" si="1"/>
         <v>237414.15714285715</v>
       </c>
-      <c r="S42" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T42" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="X42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y42">
+        <v>1278</v>
+      </c>
+      <c r="Z42">
+        <v>1341</v>
+      </c>
+      <c r="AA42">
+        <v>1747</v>
+      </c>
+      <c r="AB42">
+        <v>1945</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD42">
+        <v>1577.75</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG42">
+        <v>1173452.8</v>
+      </c>
+      <c r="AH42">
+        <v>1140946.8999999999</v>
+      </c>
+      <c r="AI42">
+        <v>1147025.2</v>
+      </c>
+      <c r="AJ42">
+        <v>1155351.3999999999</v>
+      </c>
+      <c r="AK42">
+        <v>1170589.3</v>
+      </c>
+      <c r="AL42">
+        <v>1187615.3</v>
+      </c>
+      <c r="AM42">
+        <v>1212363.3</v>
+      </c>
+      <c r="AN42">
+        <v>1169620.6000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6817,18 +8819,65 @@
         <v>61068.800000000003</v>
       </c>
       <c r="Q43" s="6">
-        <f>AVERAGE(J43:P43)</f>
+        <f t="shared" si="1"/>
         <v>52116.771428571425</v>
       </c>
-      <c r="S43">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>42</v>
-      </c>
-      <c r="T43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y43">
+        <v>982</v>
+      </c>
+      <c r="Z43">
+        <v>994</v>
+      </c>
+      <c r="AA43">
+        <v>1349</v>
+      </c>
+      <c r="AB43">
+        <v>1875</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>1300</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG43">
+        <v>2229752.6</v>
+      </c>
+      <c r="AH43">
+        <v>2225316.1</v>
+      </c>
+      <c r="AI43">
+        <v>2227432.2000000002</v>
+      </c>
+      <c r="AJ43">
+        <v>2229601.7000000002</v>
+      </c>
+      <c r="AK43">
+        <v>2254458.7999999998</v>
+      </c>
+      <c r="AL43">
+        <v>2269553</v>
+      </c>
+      <c r="AM43">
+        <v>2289648.2000000002</v>
+      </c>
+      <c r="AN43">
+        <v>2246537.5142857144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -6876,18 +8925,65 @@
         <v>1608509.7</v>
       </c>
       <c r="Q44" s="6">
-        <f>AVERAGE(J44:P44)</f>
+        <f t="shared" si="1"/>
         <v>1209014.8857142855</v>
       </c>
-      <c r="S44">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>44</v>
-      </c>
-      <c r="T44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44">
+        <v>32</v>
+      </c>
+      <c r="Z44">
+        <v>34</v>
+      </c>
+      <c r="AA44">
+        <v>35</v>
+      </c>
+      <c r="AB44">
+        <v>31</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD44">
+        <v>33</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG44">
+        <v>23155</v>
+      </c>
+      <c r="AH44">
+        <v>26080.799999999999</v>
+      </c>
+      <c r="AI44">
+        <v>30934.6</v>
+      </c>
+      <c r="AJ44">
+        <v>32172.1</v>
+      </c>
+      <c r="AK44">
+        <v>32851</v>
+      </c>
+      <c r="AL44">
+        <v>33786.300000000003</v>
+      </c>
+      <c r="AM44">
+        <v>37524.1</v>
+      </c>
+      <c r="AN44">
+        <v>30929.12857142857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -6935,18 +9031,65 @@
         <v>564981.9</v>
       </c>
       <c r="Q45" s="6">
-        <f>AVERAGE(J45:P45)</f>
+        <f t="shared" si="1"/>
         <v>436347.98571428569</v>
       </c>
-      <c r="S45">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>45</v>
-      </c>
-      <c r="T45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45">
+        <v>62</v>
+      </c>
+      <c r="Z45">
+        <v>89</v>
+      </c>
+      <c r="AA45">
+        <v>136</v>
+      </c>
+      <c r="AB45">
+        <v>123</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD45">
+        <v>102.5</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG45">
+        <v>28491.7</v>
+      </c>
+      <c r="AH45">
+        <v>32802.400000000001</v>
+      </c>
+      <c r="AI45">
+        <v>37670.199999999997</v>
+      </c>
+      <c r="AJ45">
+        <v>43981</v>
+      </c>
+      <c r="AK45">
+        <v>48772.6</v>
+      </c>
+      <c r="AL45">
+        <v>52116.7</v>
+      </c>
+      <c r="AM45">
+        <v>58790.6</v>
+      </c>
+      <c r="AN45">
+        <v>43232.171428571419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -6994,18 +9137,65 @@
         <v>23782.6</v>
       </c>
       <c r="Q46" s="6">
-        <f>AVERAGE(J46:P46)</f>
+        <f t="shared" si="1"/>
         <v>16289.314285714283</v>
       </c>
-      <c r="S46" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T46" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X46" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y46">
+        <v>99</v>
+      </c>
+      <c r="Z46">
+        <v>113</v>
+      </c>
+      <c r="AA46">
+        <v>128</v>
+      </c>
+      <c r="AB46">
+        <v>85</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD46">
+        <v>106.25</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG46">
+        <v>21967.200000000001</v>
+      </c>
+      <c r="AH46">
+        <v>25060.400000000001</v>
+      </c>
+      <c r="AI46">
+        <v>28557.3</v>
+      </c>
+      <c r="AJ46">
+        <v>32096</v>
+      </c>
+      <c r="AK46">
+        <v>36754.400000000001</v>
+      </c>
+      <c r="AL46">
+        <v>41020.400000000001</v>
+      </c>
+      <c r="AM46">
+        <v>46747.3</v>
+      </c>
+      <c r="AN46">
+        <v>33171.857142857145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -7053,18 +9243,65 @@
         <v>103591.7</v>
       </c>
       <c r="Q47" s="6">
-        <f>AVERAGE(J47:P47)</f>
+        <f t="shared" si="1"/>
         <v>98349.185714285704</v>
       </c>
-      <c r="S47">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>46</v>
-      </c>
-      <c r="T47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y47">
+        <v>86</v>
+      </c>
+      <c r="Z47">
+        <v>94</v>
+      </c>
+      <c r="AA47">
+        <v>97</v>
+      </c>
+      <c r="AB47">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD47">
+        <v>87.25</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG47">
+        <v>41170.9</v>
+      </c>
+      <c r="AH47">
+        <v>45854.6</v>
+      </c>
+      <c r="AI47">
+        <v>49271.199999999997</v>
+      </c>
+      <c r="AJ47">
+        <v>53087.199999999997</v>
+      </c>
+      <c r="AK47">
+        <v>56575.8</v>
+      </c>
+      <c r="AL47">
+        <v>58937.5</v>
+      </c>
+      <c r="AM47">
+        <v>62398.3</v>
+      </c>
+      <c r="AN47">
+        <v>52470.785714285717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -7112,18 +9349,65 @@
         <v>109625.3</v>
       </c>
       <c r="Q48" s="6">
-        <f>AVERAGE(J48:P48)</f>
+        <f t="shared" si="1"/>
         <v>96862.871428571438</v>
       </c>
-      <c r="S48">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>47</v>
-      </c>
-      <c r="T48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y48">
+        <v>22</v>
+      </c>
+      <c r="Z48">
+        <v>23</v>
+      </c>
+      <c r="AA48">
+        <v>29</v>
+      </c>
+      <c r="AB48">
+        <v>32</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD48">
+        <v>26.5</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG48">
+        <v>12884.4</v>
+      </c>
+      <c r="AH48">
+        <v>13873.1</v>
+      </c>
+      <c r="AI48">
+        <v>14284.7</v>
+      </c>
+      <c r="AJ48">
+        <v>14951.1</v>
+      </c>
+      <c r="AK48">
+        <v>15771.3</v>
+      </c>
+      <c r="AL48">
+        <v>16672.8</v>
+      </c>
+      <c r="AM48">
+        <v>17807.8</v>
+      </c>
+      <c r="AN48">
+        <v>15177.885714285714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -7171,18 +9455,65 @@
         <v>224460</v>
       </c>
       <c r="Q49" s="6">
-        <f>AVERAGE(J49:P49)</f>
+        <f t="shared" si="1"/>
         <v>198491.15714285715</v>
       </c>
-      <c r="S49">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>48</v>
-      </c>
-      <c r="T49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y49">
+        <v>61</v>
+      </c>
+      <c r="Z49">
+        <v>65</v>
+      </c>
+      <c r="AA49">
+        <v>65</v>
+      </c>
+      <c r="AB49">
+        <v>52</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD49">
+        <v>60.75</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG49">
+        <v>684.5</v>
+      </c>
+      <c r="AH49">
+        <v>775.6</v>
+      </c>
+      <c r="AI49">
+        <v>825.1</v>
+      </c>
+      <c r="AJ49">
+        <v>867.3</v>
+      </c>
+      <c r="AK49">
+        <v>863.9</v>
+      </c>
+      <c r="AL49">
+        <v>859.2</v>
+      </c>
+      <c r="AM49">
+        <v>905.9</v>
+      </c>
+      <c r="AN49">
+        <v>825.92857142857144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -7230,18 +9561,65 @@
         <v>1212363.3</v>
       </c>
       <c r="Q50" s="6">
-        <f>AVERAGE(J50:P50)</f>
+        <f t="shared" si="1"/>
         <v>1169620.6000000001</v>
       </c>
-      <c r="S50">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>49</v>
-      </c>
-      <c r="T50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S50" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50">
+        <v>35</v>
+      </c>
+      <c r="Z50">
+        <v>37</v>
+      </c>
+      <c r="AA50">
+        <v>47</v>
+      </c>
+      <c r="AB50">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD50">
+        <v>40.75</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG50">
+        <v>21915.7</v>
+      </c>
+      <c r="AH50">
+        <v>22877.5</v>
+      </c>
+      <c r="AI50">
+        <v>23903.9</v>
+      </c>
+      <c r="AJ50">
+        <v>24299.5</v>
+      </c>
+      <c r="AK50">
+        <v>24945.200000000001</v>
+      </c>
+      <c r="AL50">
+        <v>26814</v>
+      </c>
+      <c r="AM50">
+        <v>27991.1</v>
+      </c>
+      <c r="AN50">
+        <v>24678.12857142857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -7289,18 +9667,65 @@
         <v>2289648.2000000002</v>
       </c>
       <c r="Q51" s="6">
-        <f>AVERAGE(J51:P51)</f>
+        <f t="shared" si="1"/>
         <v>2246537.5142857144</v>
       </c>
-      <c r="S51">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>51</v>
-      </c>
-      <c r="T51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X51" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>395</v>
+      </c>
+      <c r="Z51">
+        <v>456</v>
+      </c>
+      <c r="AA51">
+        <v>616</v>
+      </c>
+      <c r="AB51">
+        <v>657</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>531</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG51">
+        <v>91564.2</v>
+      </c>
+      <c r="AH51">
+        <v>100807.3</v>
+      </c>
+      <c r="AI51">
+        <v>108989.1</v>
+      </c>
+      <c r="AJ51">
+        <v>118340.5</v>
+      </c>
+      <c r="AK51">
+        <v>128522.6</v>
+      </c>
+      <c r="AL51">
+        <v>136304.6</v>
+      </c>
+      <c r="AM51">
+        <v>150829.4</v>
+      </c>
+      <c r="AN51">
+        <v>119336.81428571428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -7348,18 +9773,65 @@
         <v>37524.1</v>
       </c>
       <c r="Q52" s="6">
-        <f>AVERAGE(J52:P52)</f>
+        <f t="shared" si="1"/>
         <v>30929.12857142857</v>
       </c>
-      <c r="S52">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>52</v>
-      </c>
-      <c r="T52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y52">
+        <v>760</v>
+      </c>
+      <c r="Z52">
+        <v>980</v>
+      </c>
+      <c r="AA52">
+        <v>1211</v>
+      </c>
+      <c r="AB52">
+        <v>1249</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD52">
+        <v>1050</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG52">
+        <v>640917.80000000005</v>
+      </c>
+      <c r="AH52">
+        <v>673159.9</v>
+      </c>
+      <c r="AI52">
+        <v>700336.8</v>
+      </c>
+      <c r="AJ52">
+        <v>754763.9</v>
+      </c>
+      <c r="AK52">
+        <v>816414.9</v>
+      </c>
+      <c r="AL52">
+        <v>871012.9</v>
+      </c>
+      <c r="AM52">
+        <v>923981.5</v>
+      </c>
+      <c r="AN52">
+        <v>768655.38571428577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7407,18 +9879,65 @@
         <v>58790.6</v>
       </c>
       <c r="Q53" s="6">
-        <f>AVERAGE(J53:P53)</f>
+        <f t="shared" si="1"/>
         <v>43232.171428571419</v>
       </c>
-      <c r="S53">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>53</v>
-      </c>
-      <c r="T53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y53">
+        <v>52</v>
+      </c>
+      <c r="Z53">
+        <v>57</v>
+      </c>
+      <c r="AA53">
+        <v>69</v>
+      </c>
+      <c r="AB53">
+        <v>91</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD53">
+        <v>67.25</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG53">
+        <v>61396.7</v>
+      </c>
+      <c r="AH53">
+        <v>63779.7</v>
+      </c>
+      <c r="AI53">
+        <v>68145.600000000006</v>
+      </c>
+      <c r="AJ53">
+        <v>68764.899999999994</v>
+      </c>
+      <c r="AK53">
+        <v>72195.5</v>
+      </c>
+      <c r="AL53">
+        <v>72180.100000000006</v>
+      </c>
+      <c r="AM53">
+        <v>76358.2</v>
+      </c>
+      <c r="AN53">
+        <v>68974.385714285716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7466,18 +9985,65 @@
         <v>46747.3</v>
       </c>
       <c r="Q54" s="6">
-        <f>AVERAGE(J54:P54)</f>
+        <f t="shared" si="1"/>
         <v>33171.857142857145</v>
       </c>
-      <c r="S54">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>54</v>
-      </c>
-      <c r="T54">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y54">
+        <v>448</v>
+      </c>
+      <c r="Z54">
+        <v>481</v>
+      </c>
+      <c r="AA54">
+        <v>584</v>
+      </c>
+      <c r="AB54">
+        <v>644</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD54">
+        <v>539.25</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG54">
+        <v>354866</v>
+      </c>
+      <c r="AH54">
+        <v>358113.5</v>
+      </c>
+      <c r="AI54">
+        <v>361793.6</v>
+      </c>
+      <c r="AJ54">
+        <v>370634.2</v>
+      </c>
+      <c r="AK54">
+        <v>377336.8</v>
+      </c>
+      <c r="AL54">
+        <v>387880.7</v>
+      </c>
+      <c r="AM54">
+        <v>397180.9</v>
+      </c>
+      <c r="AN54">
+        <v>372543.67142857146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -7525,18 +10091,65 @@
         <v>62398.3</v>
       </c>
       <c r="Q55" s="6">
-        <f>AVERAGE(J55:P55)</f>
+        <f t="shared" si="1"/>
         <v>52470.785714285717</v>
       </c>
-      <c r="S55">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>55</v>
-      </c>
-      <c r="T55">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y55">
+        <v>62</v>
+      </c>
+      <c r="Z55">
+        <v>66</v>
+      </c>
+      <c r="AA55">
+        <v>78</v>
+      </c>
+      <c r="AB55">
+        <v>99</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>76.25</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG55">
+        <v>72135.199999999997</v>
+      </c>
+      <c r="AH55">
+        <v>76598</v>
+      </c>
+      <c r="AI55">
+        <v>78244.399999999994</v>
+      </c>
+      <c r="AJ55">
+        <v>80944.800000000003</v>
+      </c>
+      <c r="AK55">
+        <v>82370.8</v>
+      </c>
+      <c r="AL55">
+        <v>87544.5</v>
+      </c>
+      <c r="AM55">
+        <v>93923.1</v>
+      </c>
+      <c r="AN55">
+        <v>81680.114285714299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -7584,18 +10197,65 @@
         <v>5610.1</v>
       </c>
       <c r="Q56" s="6">
-        <f>AVERAGE(J56:P56)</f>
+        <f t="shared" si="1"/>
         <v>4226.3571428571431</v>
       </c>
-      <c r="S56" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T56" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="X56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y56">
+        <v>123</v>
+      </c>
+      <c r="Z56">
+        <v>232</v>
+      </c>
+      <c r="AA56">
+        <v>287</v>
+      </c>
+      <c r="AB56">
+        <v>251</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD56">
+        <v>223.25</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG56">
+        <v>67632.600000000006</v>
+      </c>
+      <c r="AH56">
+        <v>68783.8</v>
+      </c>
+      <c r="AI56">
+        <v>95797.1</v>
+      </c>
+      <c r="AJ56">
+        <v>104912.5</v>
+      </c>
+      <c r="AK56">
+        <v>121321.1</v>
+      </c>
+      <c r="AL56">
+        <v>135019.5</v>
+      </c>
+      <c r="AM56">
+        <v>148647.70000000001</v>
+      </c>
+      <c r="AN56">
+        <v>106016.32857142857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -7643,18 +10303,65 @@
         <v>17807.8</v>
       </c>
       <c r="Q57" s="6">
-        <f>AVERAGE(J57:P57)</f>
+        <f t="shared" si="1"/>
         <v>15177.885714285714</v>
       </c>
-      <c r="S57">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>56</v>
-      </c>
-      <c r="T57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X57" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y57">
+        <v>159</v>
+      </c>
+      <c r="Z57">
+        <v>178</v>
+      </c>
+      <c r="AA57">
+        <v>248</v>
+      </c>
+      <c r="AB57">
+        <v>289</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD57">
+        <v>218.5</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG57">
+        <v>101210.4</v>
+      </c>
+      <c r="AH57">
+        <v>106780.7</v>
+      </c>
+      <c r="AI57">
+        <v>113368.1</v>
+      </c>
+      <c r="AJ57">
+        <v>118314.7</v>
+      </c>
+      <c r="AK57">
+        <v>127248.8</v>
+      </c>
+      <c r="AL57">
+        <v>128947.9</v>
+      </c>
+      <c r="AM57">
+        <v>133976.20000000001</v>
+      </c>
+      <c r="AN57">
+        <v>118549.54285714286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -7702,18 +10409,65 @@
         <v>905.9</v>
       </c>
       <c r="Q58" s="6">
-        <f>AVERAGE(J58:P58)</f>
+        <f t="shared" si="1"/>
         <v>825.92857142857144</v>
       </c>
-      <c r="S58">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>57</v>
-      </c>
-      <c r="T58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y58">
+        <v>56</v>
+      </c>
+      <c r="Z58">
+        <v>59</v>
+      </c>
+      <c r="AA58">
+        <v>65</v>
+      </c>
+      <c r="AB58">
+        <v>36</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD58">
+        <v>54</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG58">
+        <v>24451.3</v>
+      </c>
+      <c r="AH58">
+        <v>26327.8</v>
+      </c>
+      <c r="AI58">
+        <v>27195.200000000001</v>
+      </c>
+      <c r="AJ58">
+        <v>29261.9</v>
+      </c>
+      <c r="AK58">
+        <v>30862.3</v>
+      </c>
+      <c r="AL58">
+        <v>31056.799999999999</v>
+      </c>
+      <c r="AM58">
+        <v>34413.599999999999</v>
+      </c>
+      <c r="AN58">
+        <v>29081.271428571428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -7761,18 +10515,65 @@
         <v>27991.1</v>
       </c>
       <c r="Q59" s="6">
-        <f>AVERAGE(J59:P59)</f>
+        <f t="shared" si="1"/>
         <v>24678.12857142857</v>
       </c>
-      <c r="S59">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>59</v>
-      </c>
-      <c r="T59">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y59">
+        <v>267</v>
+      </c>
+      <c r="Z59">
+        <v>276</v>
+      </c>
+      <c r="AA59">
+        <v>344</v>
+      </c>
+      <c r="AB59">
+        <v>278</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>291.25</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG59">
+        <v>55224.1</v>
+      </c>
+      <c r="AH59">
+        <v>61556.2</v>
+      </c>
+      <c r="AI59">
+        <v>67394.5</v>
+      </c>
+      <c r="AJ59">
+        <v>75974.399999999994</v>
+      </c>
+      <c r="AK59">
+        <v>81575.199999999997</v>
+      </c>
+      <c r="AL59">
+        <v>88643.8</v>
+      </c>
+      <c r="AM59">
+        <v>98449.9</v>
+      </c>
+      <c r="AN59">
+        <v>75545.442857142858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -7820,18 +10621,65 @@
         <v>150829.4</v>
       </c>
       <c r="Q60" s="6">
-        <f>AVERAGE(J60:P60)</f>
+        <f t="shared" si="1"/>
         <v>119336.81428571428</v>
       </c>
-      <c r="S60">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>61</v>
-      </c>
-      <c r="T60">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X60" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y60">
+        <v>112</v>
+      </c>
+      <c r="Z60">
+        <v>117</v>
+      </c>
+      <c r="AA60">
+        <v>120</v>
+      </c>
+      <c r="AB60">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD60">
+        <v>105.75</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG60">
+        <v>21102.1</v>
+      </c>
+      <c r="AH60">
+        <v>23534</v>
+      </c>
+      <c r="AI60">
+        <v>26272.1</v>
+      </c>
+      <c r="AJ60">
+        <v>29547.1</v>
+      </c>
+      <c r="AK60">
+        <v>30535.8</v>
+      </c>
+      <c r="AL60">
+        <v>32984.6</v>
+      </c>
+      <c r="AM60">
+        <v>34528.9</v>
+      </c>
+      <c r="AN60">
+        <v>28357.799999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -7879,18 +10727,65 @@
         <v>923981.5</v>
       </c>
       <c r="Q61" s="6">
-        <f>AVERAGE(J61:P61)</f>
+        <f t="shared" si="1"/>
         <v>768655.38571428577</v>
       </c>
-      <c r="S61">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>64</v>
-      </c>
-      <c r="T61">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X61" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y61">
+        <v>76</v>
+      </c>
+      <c r="Z61">
+        <v>89</v>
+      </c>
+      <c r="AA61">
+        <v>115</v>
+      </c>
+      <c r="AB61">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD61">
+        <v>88.25</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG61">
+        <v>12921.6</v>
+      </c>
+      <c r="AH61">
+        <v>13973.5</v>
+      </c>
+      <c r="AI61">
+        <v>15028.6</v>
+      </c>
+      <c r="AJ61">
+        <v>16619.099999999999</v>
+      </c>
+      <c r="AK61">
+        <v>17333.8</v>
+      </c>
+      <c r="AL61">
+        <v>18391</v>
+      </c>
+      <c r="AM61">
+        <v>19922.7</v>
+      </c>
+      <c r="AN61">
+        <v>16312.899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -7938,18 +10833,65 @@
         <v>76358.2</v>
       </c>
       <c r="Q62" s="6">
-        <f>AVERAGE(J62:P62)</f>
+        <f t="shared" si="1"/>
         <v>68974.385714285716</v>
       </c>
-      <c r="S62">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>67</v>
-      </c>
-      <c r="T62">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y62">
+        <v>190</v>
+      </c>
+      <c r="Z62">
+        <v>210</v>
+      </c>
+      <c r="AA62">
+        <v>249</v>
+      </c>
+      <c r="AB62">
+        <v>209</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD62">
+        <v>214.5</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG62">
+        <v>81897.399999999994</v>
+      </c>
+      <c r="AH62">
+        <v>90797.6</v>
+      </c>
+      <c r="AI62">
+        <v>98297.600000000006</v>
+      </c>
+      <c r="AJ62">
+        <v>106038.2</v>
+      </c>
+      <c r="AK62">
+        <v>113173.5</v>
+      </c>
+      <c r="AL62">
+        <v>119982.39999999999</v>
+      </c>
+      <c r="AM62">
+        <v>125372.2</v>
+      </c>
+      <c r="AN62">
+        <v>105079.84285714284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7997,18 +10939,65 @@
         <v>24881.9</v>
       </c>
       <c r="Q63" s="6">
-        <f>AVERAGE(J63:P63)</f>
+        <f t="shared" si="1"/>
         <v>18676.142857142859</v>
       </c>
-      <c r="S63" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="X63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y63">
+        <v>388</v>
+      </c>
+      <c r="Z63">
+        <v>431</v>
+      </c>
+      <c r="AA63">
+        <v>444</v>
+      </c>
+      <c r="AB63">
+        <v>338</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>400.25</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG63">
+        <v>139199</v>
+      </c>
+      <c r="AH63">
+        <v>152967.79999999999</v>
+      </c>
+      <c r="AI63">
+        <v>165145.60000000001</v>
+      </c>
+      <c r="AJ63">
+        <v>179593.5</v>
+      </c>
+      <c r="AK63">
+        <v>188667.9</v>
+      </c>
+      <c r="AL63">
+        <v>204450.3</v>
+      </c>
+      <c r="AM63">
+        <v>222370.9</v>
+      </c>
+      <c r="AN63">
+        <v>178913.57142857142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -8056,18 +11045,65 @@
         <v>397180.9</v>
       </c>
       <c r="Q64" s="6">
-        <f>AVERAGE(J64:P64)</f>
+        <f t="shared" si="1"/>
         <v>372543.67142857146</v>
       </c>
-      <c r="S64">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>68</v>
-      </c>
-      <c r="T64">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y64">
+        <v>415</v>
+      </c>
+      <c r="Z64">
+        <v>447</v>
+      </c>
+      <c r="AA64">
+        <v>563</v>
+      </c>
+      <c r="AB64">
+        <v>618</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD64">
+        <v>510.75</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG64">
+        <v>229497.60000000001</v>
+      </c>
+      <c r="AH64">
+        <v>239954.3</v>
+      </c>
+      <c r="AI64">
+        <v>242351.5</v>
+      </c>
+      <c r="AJ64">
+        <v>254667.8</v>
+      </c>
+      <c r="AK64">
+        <v>260957.2</v>
+      </c>
+      <c r="AL64">
+        <v>274472.90000000002</v>
+      </c>
+      <c r="AM64">
+        <v>289478.2</v>
+      </c>
+      <c r="AN64">
+        <v>255911.3571428571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -8115,18 +11151,65 @@
         <v>93923.1</v>
       </c>
       <c r="Q65" s="6">
-        <f>AVERAGE(J65:P65)</f>
+        <f t="shared" si="1"/>
         <v>81680.114285714299</v>
       </c>
-      <c r="S65">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>69</v>
-      </c>
-      <c r="T65">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X65" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y65">
+        <v>137</v>
+      </c>
+      <c r="Z65">
+        <v>145</v>
+      </c>
+      <c r="AA65">
+        <v>180</v>
+      </c>
+      <c r="AB65">
+        <v>245</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD65">
+        <v>176.75</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG65">
+        <v>133801.9</v>
+      </c>
+      <c r="AH65">
+        <v>130450.6</v>
+      </c>
+      <c r="AI65">
+        <v>129136.3</v>
+      </c>
+      <c r="AJ65">
+        <v>128485.3</v>
+      </c>
+      <c r="AK65">
+        <v>132870.79999999999</v>
+      </c>
+      <c r="AL65">
+        <v>137872.20000000001</v>
+      </c>
+      <c r="AM65">
+        <v>142274.29999999999</v>
+      </c>
+      <c r="AN65">
+        <v>133555.91428571427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -8174,18 +11257,65 @@
         <v>148647.70000000001</v>
       </c>
       <c r="Q66" s="6">
-        <f>AVERAGE(J66:P66)</f>
+        <f t="shared" si="1"/>
         <v>106016.32857142857</v>
       </c>
-      <c r="S66">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>71</v>
-      </c>
-      <c r="T66">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y66">
+        <v>64</v>
+      </c>
+      <c r="Z66">
+        <v>72</v>
+      </c>
+      <c r="AA66">
+        <v>77</v>
+      </c>
+      <c r="AB66">
+        <v>62</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD66">
+        <v>68.75</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG66">
+        <v>31112.9</v>
+      </c>
+      <c r="AH66">
+        <v>34533.199999999997</v>
+      </c>
+      <c r="AI66">
+        <v>39899.800000000003</v>
+      </c>
+      <c r="AJ66">
+        <v>39817.599999999999</v>
+      </c>
+      <c r="AK66">
+        <v>45804.800000000003</v>
+      </c>
+      <c r="AL66">
+        <v>46182.2</v>
+      </c>
+      <c r="AM66">
+        <v>46958.7</v>
+      </c>
+      <c r="AN66">
+        <v>40615.599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -8233,18 +11363,65 @@
         <v>7474.4</v>
       </c>
       <c r="Q67" s="6">
-        <f>AVERAGE(J67:P67)</f>
+        <f t="shared" ref="Q67:Q98" si="2">AVERAGE(J67:P67)</f>
         <v>6784.3000000000011</v>
       </c>
-      <c r="S67" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T67" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T67" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="X67" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y67">
+        <v>151</v>
+      </c>
+      <c r="Z67">
+        <v>161</v>
+      </c>
+      <c r="AA67">
+        <v>208</v>
+      </c>
+      <c r="AB67">
+        <v>207</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD67">
+        <v>181.75</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG67">
+        <v>77463.100000000006</v>
+      </c>
+      <c r="AH67">
+        <v>80114.5</v>
+      </c>
+      <c r="AI67">
+        <v>86754.4</v>
+      </c>
+      <c r="AJ67">
+        <v>88550.1</v>
+      </c>
+      <c r="AK67">
+        <v>94842.9</v>
+      </c>
+      <c r="AL67">
+        <v>103801.4</v>
+      </c>
+      <c r="AM67">
+        <v>118494.8</v>
+      </c>
+      <c r="AN67">
+        <v>92860.171428571441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -8292,18 +11469,65 @@
         <v>133976.20000000001</v>
       </c>
       <c r="Q68" s="6">
-        <f>AVERAGE(J68:P68)</f>
+        <f t="shared" si="2"/>
         <v>118549.54285714286</v>
       </c>
-      <c r="S68">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>72</v>
-      </c>
-      <c r="T68">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X68" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y68">
+        <v>1291</v>
+      </c>
+      <c r="Z68">
+        <v>1341</v>
+      </c>
+      <c r="AA68">
+        <v>2658</v>
+      </c>
+      <c r="AB68">
+        <v>3227</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD68">
+        <v>2129.25</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG68">
+        <v>382579.5</v>
+      </c>
+      <c r="AH68">
+        <v>438669.7</v>
+      </c>
+      <c r="AI68">
+        <v>486384</v>
+      </c>
+      <c r="AJ68">
+        <v>536828.6</v>
+      </c>
+      <c r="AK68">
+        <v>574497.80000000005</v>
+      </c>
+      <c r="AL68">
+        <v>603873.30000000005</v>
+      </c>
+      <c r="AM68">
+        <v>638193.1</v>
+      </c>
+      <c r="AN68">
+        <v>523003.7142857142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -8351,18 +11575,65 @@
         <v>34413.599999999999</v>
       </c>
       <c r="Q69" s="6">
-        <f>AVERAGE(J69:P69)</f>
+        <f t="shared" si="2"/>
         <v>29081.271428571428</v>
       </c>
-      <c r="S69">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>73</v>
-      </c>
-      <c r="T69">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="X69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y69">
+        <v>356</v>
+      </c>
+      <c r="Z69">
+        <v>412</v>
+      </c>
+      <c r="AA69">
+        <v>421</v>
+      </c>
+      <c r="AB69">
+        <v>449</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD69">
+        <v>409.5</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG69">
+        <v>183855</v>
+      </c>
+      <c r="AH69">
+        <v>212162.6</v>
+      </c>
+      <c r="AI69">
+        <v>227866.7</v>
+      </c>
+      <c r="AJ69">
+        <v>249754</v>
+      </c>
+      <c r="AK69">
+        <v>274884</v>
+      </c>
+      <c r="AL69">
+        <v>291929.3</v>
+      </c>
+      <c r="AM69">
+        <v>303277.2</v>
+      </c>
+      <c r="AN69">
+        <v>249104.11428571428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -8410,18 +11681,65 @@
         <v>98449.9</v>
       </c>
       <c r="Q70" s="6">
-        <f>AVERAGE(J70:P70)</f>
+        <f t="shared" si="2"/>
         <v>75545.442857142858</v>
       </c>
-      <c r="S70">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>79</v>
-      </c>
-      <c r="T70">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S70" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y70">
+        <v>51</v>
+      </c>
+      <c r="Z70">
+        <v>54</v>
+      </c>
+      <c r="AA70">
+        <v>70</v>
+      </c>
+      <c r="AB70">
+        <v>104</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD70">
+        <v>69.75</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG70">
+        <v>24288.1</v>
+      </c>
+      <c r="AH70">
+        <v>26051.200000000001</v>
+      </c>
+      <c r="AI70">
+        <v>26959.9</v>
+      </c>
+      <c r="AJ70">
+        <v>27790</v>
+      </c>
+      <c r="AK70">
+        <v>28297.1</v>
+      </c>
+      <c r="AL70">
+        <v>28285.3</v>
+      </c>
+      <c r="AM70">
+        <v>29194.1</v>
+      </c>
+      <c r="AN70">
+        <v>27266.528571428575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -8469,18 +11787,65 @@
         <v>34528.9</v>
       </c>
       <c r="Q71" s="6">
-        <f>AVERAGE(J71:P71)</f>
+        <f t="shared" si="2"/>
         <v>28357.799999999996</v>
       </c>
-      <c r="S71">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>80</v>
-      </c>
-      <c r="T71">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y71">
+        <v>235</v>
+      </c>
+      <c r="Z71">
+        <v>290</v>
+      </c>
+      <c r="AA71">
+        <v>344</v>
+      </c>
+      <c r="AB71">
+        <v>255</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>281</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG71">
+        <v>134374.20000000001</v>
+      </c>
+      <c r="AH71">
+        <v>145367.5</v>
+      </c>
+      <c r="AI71">
+        <v>152892.20000000001</v>
+      </c>
+      <c r="AJ71">
+        <v>159991.1</v>
+      </c>
+      <c r="AK71">
+        <v>167915.2</v>
+      </c>
+      <c r="AL71">
+        <v>171495.6</v>
+      </c>
+      <c r="AM71">
+        <v>178276.6</v>
+      </c>
+      <c r="AN71">
+        <v>158616.05714285714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -8528,18 +11893,65 @@
         <v>19922.7</v>
       </c>
       <c r="Q72" s="6">
-        <f>AVERAGE(J72:P72)</f>
+        <f t="shared" si="2"/>
         <v>16312.899999999998</v>
       </c>
-      <c r="S72">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>81</v>
-      </c>
-      <c r="T72">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S72" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T72" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X72" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y72">
+        <v>51</v>
+      </c>
+      <c r="Z72">
+        <v>55</v>
+      </c>
+      <c r="AA72">
+        <v>67</v>
+      </c>
+      <c r="AB72">
+        <v>68</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD72">
+        <v>60.25</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG72">
+        <v>45029.4</v>
+      </c>
+      <c r="AH72">
+        <v>46258.3</v>
+      </c>
+      <c r="AI72">
+        <v>46388.7</v>
+      </c>
+      <c r="AJ72">
+        <v>47396.7</v>
+      </c>
+      <c r="AK72">
+        <v>49850.5</v>
+      </c>
+      <c r="AL72">
+        <v>51422.8</v>
+      </c>
+      <c r="AM72">
+        <v>53994.1</v>
+      </c>
+      <c r="AN72">
+        <v>48620.071428571428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -8587,18 +11999,65 @@
         <v>125372.2</v>
       </c>
       <c r="Q73" s="6">
-        <f>AVERAGE(J73:P73)</f>
+        <f t="shared" si="2"/>
         <v>105079.84285714284</v>
       </c>
-      <c r="S73">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>82</v>
-      </c>
-      <c r="T73">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X73" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y73">
+        <v>28</v>
+      </c>
+      <c r="Z73">
+        <v>30</v>
+      </c>
+      <c r="AA73">
+        <v>41</v>
+      </c>
+      <c r="AB73">
+        <v>51</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD73">
+        <v>37.5</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG73">
+        <v>25086.799999999999</v>
+      </c>
+      <c r="AH73">
+        <v>24583.4</v>
+      </c>
+      <c r="AI73">
+        <v>24508.5</v>
+      </c>
+      <c r="AJ73">
+        <v>24807</v>
+      </c>
+      <c r="AK73">
+        <v>25242</v>
+      </c>
+      <c r="AL73">
+        <v>26248.7</v>
+      </c>
+      <c r="AM73">
+        <v>27469.5</v>
+      </c>
+      <c r="AN73">
+        <v>25420.842857142856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -8646,18 +12105,65 @@
         <v>222370.9</v>
       </c>
       <c r="Q74" s="6">
-        <f>AVERAGE(J74:P74)</f>
+        <f t="shared" si="2"/>
         <v>178913.57142857142</v>
       </c>
-      <c r="S74">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>83</v>
-      </c>
-      <c r="T74">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S74" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y74">
+        <v>241</v>
+      </c>
+      <c r="Z74">
+        <v>274</v>
+      </c>
+      <c r="AA74">
+        <v>385</v>
+      </c>
+      <c r="AB74">
+        <v>564</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD74">
+        <v>366</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG74">
+        <v>110486.3</v>
+      </c>
+      <c r="AH74">
+        <v>120036.4</v>
+      </c>
+      <c r="AI74">
+        <v>129980.2</v>
+      </c>
+      <c r="AJ74">
+        <v>140635.1</v>
+      </c>
+      <c r="AK74">
+        <v>153989.9</v>
+      </c>
+      <c r="AL74">
+        <v>164417.79999999999</v>
+      </c>
+      <c r="AM74">
+        <v>175214.9</v>
+      </c>
+      <c r="AN74">
+        <v>142108.65714285715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -8705,18 +12211,65 @@
         <v>289478.2</v>
       </c>
       <c r="Q75" s="6">
-        <f>AVERAGE(J75:P75)</f>
+        <f t="shared" si="2"/>
         <v>255911.3571428571</v>
       </c>
-      <c r="S75">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>84</v>
-      </c>
-      <c r="T75">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S75" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y75">
+        <v>598</v>
+      </c>
+      <c r="Z75">
+        <v>657</v>
+      </c>
+      <c r="AA75">
+        <v>712</v>
+      </c>
+      <c r="AB75">
+        <v>815</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>695.5</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG75">
+        <v>568307.69999999995</v>
+      </c>
+      <c r="AH75">
+        <v>589758.4</v>
+      </c>
+      <c r="AI75">
+        <v>615069.80000000005</v>
+      </c>
+      <c r="AJ75">
+        <v>640300.19999999995</v>
+      </c>
+      <c r="AK75">
+        <v>684587.4</v>
+      </c>
+      <c r="AL75">
+        <v>699378.4</v>
+      </c>
+      <c r="AM75">
+        <v>724966.2</v>
+      </c>
+      <c r="AN75">
+        <v>646052.58571428561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -8764,18 +12317,65 @@
         <v>142274.29999999999</v>
       </c>
       <c r="Q76" s="6">
-        <f>AVERAGE(J76:P76)</f>
+        <f t="shared" si="2"/>
         <v>133555.91428571427</v>
       </c>
-      <c r="S76">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>85</v>
-      </c>
-      <c r="T76">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T76" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X76" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y76">
+        <v>859</v>
+      </c>
+      <c r="Z76">
+        <v>913</v>
+      </c>
+      <c r="AA76">
+        <v>1044</v>
+      </c>
+      <c r="AB76">
+        <v>1216</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD76">
+        <v>1008</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG76">
+        <v>736907</v>
+      </c>
+      <c r="AH76">
+        <v>698018</v>
+      </c>
+      <c r="AI76">
+        <v>695391.3</v>
+      </c>
+      <c r="AJ76">
+        <v>696649</v>
+      </c>
+      <c r="AK76">
+        <v>724290.1</v>
+      </c>
+      <c r="AL76">
+        <v>743436.6</v>
+      </c>
+      <c r="AM76">
+        <v>765902.1</v>
+      </c>
+      <c r="AN76">
+        <v>722942.01428571425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -8823,18 +12423,65 @@
         <v>46958.7</v>
       </c>
       <c r="Q77" s="6">
-        <f>AVERAGE(J77:P77)</f>
+        <f t="shared" si="2"/>
         <v>40615.599999999999</v>
       </c>
-      <c r="S77">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>87</v>
-      </c>
-      <c r="T77">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X77" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y77">
+        <v>138</v>
+      </c>
+      <c r="Z77">
+        <v>163</v>
+      </c>
+      <c r="AA77">
+        <v>187</v>
+      </c>
+      <c r="AB77">
+        <v>86</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>143.5</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG77">
+        <v>16283.5</v>
+      </c>
+      <c r="AH77">
+        <v>18014.3</v>
+      </c>
+      <c r="AI77">
+        <v>20520.8</v>
+      </c>
+      <c r="AJ77">
+        <v>22097.599999999999</v>
+      </c>
+      <c r="AK77">
+        <v>23345.200000000001</v>
+      </c>
+      <c r="AL77">
+        <v>25154.5</v>
+      </c>
+      <c r="AM77">
+        <v>26843.1</v>
+      </c>
+      <c r="AN77">
+        <v>21751.285714285714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -8882,18 +12529,65 @@
         <v>118494.8</v>
       </c>
       <c r="Q78" s="6">
-        <f>AVERAGE(J78:P78)</f>
+        <f t="shared" si="2"/>
         <v>92860.171428571441</v>
       </c>
-      <c r="S78">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>89</v>
-      </c>
-      <c r="T78">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X78" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y78">
+        <v>260</v>
+      </c>
+      <c r="Z78">
+        <v>288</v>
+      </c>
+      <c r="AA78">
+        <v>397</v>
+      </c>
+      <c r="AB78">
+        <v>461</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD78">
+        <v>351.5</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG78">
+        <v>168949</v>
+      </c>
+      <c r="AH78">
+        <v>176216.4</v>
+      </c>
+      <c r="AI78">
+        <v>181210.1</v>
+      </c>
+      <c r="AJ78">
+        <v>187513</v>
+      </c>
+      <c r="AK78">
+        <v>194344.1</v>
+      </c>
+      <c r="AL78">
+        <v>202993.2</v>
+      </c>
+      <c r="AM78">
+        <v>211414.39999999999</v>
+      </c>
+      <c r="AN78">
+        <v>188948.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -8941,18 +12635,65 @@
         <v>638193.1</v>
       </c>
       <c r="Q79" s="6">
-        <f>AVERAGE(J79:P79)</f>
+        <f t="shared" si="2"/>
         <v>523003.7142857142</v>
       </c>
-      <c r="S79">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>90</v>
-      </c>
-      <c r="T79">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T79" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X79" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y79">
+        <v>399</v>
+      </c>
+      <c r="Z79">
+        <v>448</v>
+      </c>
+      <c r="AA79">
+        <v>469</v>
+      </c>
+      <c r="AB79">
+        <v>514</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD79">
+        <v>457.5</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG79">
+        <v>410435</v>
+      </c>
+      <c r="AH79">
+        <v>416011.6</v>
+      </c>
+      <c r="AI79">
+        <v>425268</v>
+      </c>
+      <c r="AJ79">
+        <v>429824.9</v>
+      </c>
+      <c r="AK79">
+        <v>429682.3</v>
+      </c>
+      <c r="AL79">
+        <v>434565.4</v>
+      </c>
+      <c r="AM79">
+        <v>435272</v>
+      </c>
+      <c r="AN79">
+        <v>425865.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9000,18 +12741,65 @@
         <v>303277.2</v>
       </c>
       <c r="Q80" s="6">
-        <f>AVERAGE(J80:P80)</f>
+        <f t="shared" si="2"/>
         <v>249104.11428571428</v>
       </c>
-      <c r="S80">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>91</v>
-      </c>
-      <c r="T80">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="X80" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y80">
+        <v>254</v>
+      </c>
+      <c r="Z80">
+        <v>264</v>
+      </c>
+      <c r="AA80">
+        <v>305</v>
+      </c>
+      <c r="AB80">
+        <v>293</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>279</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG80">
+        <v>296740</v>
+      </c>
+      <c r="AH80">
+        <v>306432</v>
+      </c>
+      <c r="AI80">
+        <v>315104.2</v>
+      </c>
+      <c r="AJ80">
+        <v>328826.5</v>
+      </c>
+      <c r="AK80">
+        <v>335786.7</v>
+      </c>
+      <c r="AL80">
+        <v>346937.9</v>
+      </c>
+      <c r="AM80">
+        <v>356174.5</v>
+      </c>
+      <c r="AN80">
+        <v>326571.6857142857</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -9059,18 +12847,65 @@
         <v>29194.1</v>
       </c>
       <c r="Q81" s="6">
-        <f>AVERAGE(J81:P81)</f>
+        <f t="shared" si="2"/>
         <v>27266.528571428575</v>
       </c>
-      <c r="S81">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>93</v>
-      </c>
-      <c r="T81">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X81" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y81">
+        <v>714</v>
+      </c>
+      <c r="Z81">
+        <v>738</v>
+      </c>
+      <c r="AA81">
+        <v>869</v>
+      </c>
+      <c r="AB81">
+        <v>852</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>793.25</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG81">
+        <v>183649.5</v>
+      </c>
+      <c r="AH81">
+        <v>198980.9</v>
+      </c>
+      <c r="AI81">
+        <v>203313.4</v>
+      </c>
+      <c r="AJ81">
+        <v>210324.6</v>
+      </c>
+      <c r="AK81">
+        <v>212675.20000000001</v>
+      </c>
+      <c r="AL81">
+        <v>222989.5</v>
+      </c>
+      <c r="AM81">
+        <v>234613.3</v>
+      </c>
+      <c r="AN81">
+        <v>209506.62857142859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -9118,18 +12953,65 @@
         <v>178276.6</v>
       </c>
       <c r="Q82" s="6">
-        <f>AVERAGE(J82:P82)</f>
+        <f t="shared" si="2"/>
         <v>158616.05714285714</v>
       </c>
-      <c r="S82">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>94</v>
-      </c>
-      <c r="T82">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S82" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X82" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y82">
+        <v>39</v>
+      </c>
+      <c r="Z82">
+        <v>49</v>
+      </c>
+      <c r="AA82">
+        <v>66</v>
+      </c>
+      <c r="AB82">
+        <v>51</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD82">
+        <v>51.25</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG82">
+        <v>14964.9</v>
+      </c>
+      <c r="AH82">
+        <v>16479.3</v>
+      </c>
+      <c r="AI82">
+        <v>17596.400000000001</v>
+      </c>
+      <c r="AJ82">
+        <v>19342.900000000001</v>
+      </c>
+      <c r="AK82">
+        <v>21148.400000000001</v>
+      </c>
+      <c r="AL82">
+        <v>22579.4</v>
+      </c>
+      <c r="AM82">
+        <v>24375.5</v>
+      </c>
+      <c r="AN82">
+        <v>19498.114285714284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -9177,18 +13059,65 @@
         <v>53994.1</v>
       </c>
       <c r="Q83" s="6">
-        <f>AVERAGE(J83:P83)</f>
+        <f t="shared" si="2"/>
         <v>48620.071428571428</v>
       </c>
-      <c r="S83">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>95</v>
-      </c>
-      <c r="T83">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y83">
+        <v>208</v>
+      </c>
+      <c r="Z83">
+        <v>291</v>
+      </c>
+      <c r="AA83">
+        <v>504</v>
+      </c>
+      <c r="AB83">
+        <v>526</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD83">
+        <v>382.25</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG83">
+        <v>40401.599999999999</v>
+      </c>
+      <c r="AH83">
+        <v>44848.7</v>
+      </c>
+      <c r="AI83">
+        <v>52616.2</v>
+      </c>
+      <c r="AJ83">
+        <v>59424.4</v>
+      </c>
+      <c r="AK83">
+        <v>67770.2</v>
+      </c>
+      <c r="AL83">
+        <v>75273.899999999994</v>
+      </c>
+      <c r="AM83">
+        <v>89600.5</v>
+      </c>
+      <c r="AN83">
+        <v>61419.357142857145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -9236,18 +13165,65 @@
         <v>27469.5</v>
       </c>
       <c r="Q84" s="6">
-        <f>AVERAGE(J84:P84)</f>
+        <f t="shared" si="2"/>
         <v>25420.842857142856</v>
       </c>
-      <c r="S84">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>96</v>
-      </c>
-      <c r="T84">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S84" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y84">
+        <v>108</v>
+      </c>
+      <c r="Z84">
+        <v>129</v>
+      </c>
+      <c r="AA84">
+        <v>444</v>
+      </c>
+      <c r="AB84">
+        <v>647</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD84">
+        <v>332</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG84">
+        <v>27126.2</v>
+      </c>
+      <c r="AH84">
+        <v>32187.599999999999</v>
+      </c>
+      <c r="AI84">
+        <v>34064.6</v>
+      </c>
+      <c r="AJ84">
+        <v>32288.5</v>
+      </c>
+      <c r="AK84">
+        <v>37349.199999999997</v>
+      </c>
+      <c r="AL84">
+        <v>42893.9</v>
+      </c>
+      <c r="AM84">
+        <v>56352.6</v>
+      </c>
+      <c r="AN84">
+        <v>37466.085714285713</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -9295,18 +13271,65 @@
         <v>175214.9</v>
       </c>
       <c r="Q85" s="6">
-        <f>AVERAGE(J85:P85)</f>
+        <f t="shared" si="2"/>
         <v>142108.65714285715</v>
       </c>
-      <c r="S85">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>97</v>
-      </c>
-      <c r="T85">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X85" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y85">
+        <v>1421</v>
+      </c>
+      <c r="Z85">
+        <v>1935</v>
+      </c>
+      <c r="AA85">
+        <v>2019</v>
+      </c>
+      <c r="AB85">
+        <v>1943</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD85">
+        <v>1829.5</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG85">
+        <v>1279739.7</v>
+      </c>
+      <c r="AH85">
+        <v>1335787.5</v>
+      </c>
+      <c r="AI85">
+        <v>1395491.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1450495.6</v>
+      </c>
+      <c r="AK85">
+        <v>1537294.1</v>
+      </c>
+      <c r="AL85">
+        <v>1567811.2</v>
+      </c>
+      <c r="AM85">
+        <v>1613225.1</v>
+      </c>
+      <c r="AN85">
+        <v>1454263.5714285711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -9354,18 +13377,66 @@
         <v>724966.2</v>
       </c>
       <c r="Q86" s="6">
-        <f>AVERAGE(J86:P86)</f>
+        <f t="shared" si="2"/>
         <v>646052.58571428561</v>
       </c>
-      <c r="S86">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>98</v>
-      </c>
-      <c r="T86">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X86" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y86">
+        <v>8612</v>
+      </c>
+      <c r="Z86">
+        <v>9095</v>
+      </c>
+      <c r="AA86">
+        <v>9737</v>
+      </c>
+      <c r="AB86">
+        <v>9773</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD86">
+        <v>9304.25</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG86" s="11">
+        <v>11885359</v>
+      </c>
+      <c r="AH86" s="11">
+        <v>12469710</v>
+      </c>
+      <c r="AI86" s="11">
+        <v>12517532</v>
+      </c>
+      <c r="AJ86" s="11">
+        <v>13187905</v>
+      </c>
+      <c r="AK86" s="11">
+        <v>13727521</v>
+      </c>
+      <c r="AL86" s="11">
+        <v>14116105</v>
+      </c>
+      <c r="AM86" s="11">
+        <v>14761069</v>
+      </c>
+      <c r="AN86" s="12">
+        <f t="shared" ref="AN86" si="3">AVERAGE(AG86:AM86)</f>
+        <v>13237885.857142856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -9413,18 +13484,65 @@
         <v>765902.1</v>
       </c>
       <c r="Q87" s="6">
-        <f>AVERAGE(J87:P87)</f>
+        <f t="shared" si="2"/>
         <v>722942.01428571425</v>
       </c>
-      <c r="S87">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>99</v>
-      </c>
-      <c r="T87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S87" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T87" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X87" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y87">
+        <v>51</v>
+      </c>
+      <c r="Z87">
+        <v>57</v>
+      </c>
+      <c r="AA87">
+        <v>74</v>
+      </c>
+      <c r="AB87">
+        <v>85</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD87">
+        <v>66.75</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG87">
+        <v>16238</v>
+      </c>
+      <c r="AH87">
+        <v>18333.8</v>
+      </c>
+      <c r="AI87">
+        <v>20747.7</v>
+      </c>
+      <c r="AJ87">
+        <v>23468.3</v>
+      </c>
+      <c r="AK87">
+        <v>25579</v>
+      </c>
+      <c r="AL87">
+        <v>27786.6</v>
+      </c>
+      <c r="AM87">
+        <v>30275.1</v>
+      </c>
+      <c r="AN87">
+        <v>23204.071428571428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -9472,18 +13590,65 @@
         <v>26843.1</v>
       </c>
       <c r="Q88" s="6">
-        <f>AVERAGE(J88:P88)</f>
+        <f t="shared" si="2"/>
         <v>21751.285714285714</v>
       </c>
-      <c r="S88">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>100</v>
-      </c>
-      <c r="T88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S88" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T88" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X88" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y88">
+        <v>317</v>
+      </c>
+      <c r="Z88">
+        <v>402</v>
+      </c>
+      <c r="AA88">
+        <v>1030</v>
+      </c>
+      <c r="AB88">
+        <v>668</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD88">
+        <v>604.25</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -9531,18 +13696,65 @@
         <v>211414.39999999999</v>
       </c>
       <c r="Q89" s="6">
-        <f>AVERAGE(J89:P89)</f>
+        <f t="shared" si="2"/>
         <v>188948.6</v>
       </c>
-      <c r="S89">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>101</v>
-      </c>
-      <c r="T89">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T89" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y89">
+        <v>492</v>
+      </c>
+      <c r="Z89">
+        <v>598</v>
+      </c>
+      <c r="AA89">
+        <v>620</v>
+      </c>
+      <c r="AB89">
+        <v>395</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD89">
+        <v>526.25</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG89">
+        <v>86910.7</v>
+      </c>
+      <c r="AH89">
+        <v>98627.8</v>
+      </c>
+      <c r="AI89">
+        <v>110598.8</v>
+      </c>
+      <c r="AJ89">
+        <v>122333.2</v>
+      </c>
+      <c r="AK89">
+        <v>133851.70000000001</v>
+      </c>
+      <c r="AL89">
+        <v>144607.29999999999</v>
+      </c>
+      <c r="AM89">
+        <v>160149.9</v>
+      </c>
+      <c r="AN89">
+        <v>122439.91428571429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -9590,18 +13802,17 @@
         <v>435272</v>
       </c>
       <c r="Q90" s="6">
-        <f>AVERAGE(J90:P90)</f>
+        <f t="shared" si="2"/>
         <v>425865.6</v>
       </c>
-      <c r="S90">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>102</v>
-      </c>
-      <c r="T90">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S90" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T90" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -9649,18 +13860,17 @@
         <v>356174.5</v>
       </c>
       <c r="Q91" s="6">
-        <f>AVERAGE(J91:P91)</f>
+        <f t="shared" si="2"/>
         <v>326571.6857142857</v>
       </c>
-      <c r="S91">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>103</v>
-      </c>
-      <c r="T91">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -9708,18 +13918,17 @@
         <v>33622.9</v>
       </c>
       <c r="Q92" s="6">
-        <f>AVERAGE(J92:P92)</f>
+        <f t="shared" si="2"/>
         <v>24719.442857142854</v>
       </c>
-      <c r="S92" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T92" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S92" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T92" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -9767,18 +13976,17 @@
         <v>234613.3</v>
       </c>
       <c r="Q93" s="6">
-        <f>AVERAGE(J93:P93)</f>
+        <f t="shared" si="2"/>
         <v>209506.62857142859</v>
       </c>
-      <c r="S93">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>104</v>
-      </c>
-      <c r="T93">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -9826,18 +14034,17 @@
         <v>24375.5</v>
       </c>
       <c r="Q94" s="6">
-        <f>AVERAGE(J94:P94)</f>
+        <f t="shared" si="2"/>
         <v>19498.114285714284</v>
       </c>
-      <c r="S94">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>105</v>
-      </c>
-      <c r="T94">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T94" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -9885,18 +14092,17 @@
         <v>89600.5</v>
       </c>
       <c r="Q95" s="6">
-        <f>AVERAGE(J95:P95)</f>
+        <f t="shared" si="2"/>
         <v>61419.357142857145</v>
       </c>
-      <c r="S95">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>106</v>
-      </c>
-      <c r="T95">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T95" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -9944,18 +14150,17 @@
         <v>4558.2</v>
       </c>
       <c r="Q96" s="6">
-        <f>AVERAGE(J96:P96)</f>
+        <f t="shared" si="2"/>
         <v>3731.2285714285717</v>
       </c>
-      <c r="S96" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T96" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S96" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T96" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -10003,18 +14208,17 @@
         <v>19333.2</v>
       </c>
       <c r="Q97" s="6">
-        <f>AVERAGE(J97:P97)</f>
+        <f t="shared" si="2"/>
         <v>14700.742857142859</v>
       </c>
-      <c r="S97" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T97" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S97" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T97" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -10062,18 +14266,17 @@
         <v>56352.6</v>
       </c>
       <c r="Q98" s="6">
-        <f>AVERAGE(J98:P98)</f>
+        <f t="shared" si="2"/>
         <v>37466.085714285713</v>
       </c>
-      <c r="S98">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>108</v>
-      </c>
-      <c r="T98">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S98" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T98" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -10121,18 +14324,17 @@
         <v>160778.79999999999</v>
       </c>
       <c r="Q99" s="6">
-        <f>AVERAGE(J99:P99)</f>
+        <f t="shared" ref="Q99:Q130" si="4">AVERAGE(J99:P99)</f>
         <v>157628.84285714285</v>
       </c>
-      <c r="S99" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T99" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S99" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T99" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -10180,18 +14382,17 @@
         <v>1613225.1</v>
       </c>
       <c r="Q100" s="6">
-        <f>AVERAGE(J100:P100)</f>
+        <f t="shared" si="4"/>
         <v>1454263.5714285711</v>
       </c>
-      <c r="S100">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>109</v>
-      </c>
-      <c r="T100">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -10239,18 +14440,17 @@
         <v>30275.1</v>
       </c>
       <c r="Q101" s="6">
-        <f>AVERAGE(J101:P101)</f>
+        <f t="shared" si="4"/>
         <v>23204.071428571428</v>
       </c>
-      <c r="S101">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>111</v>
-      </c>
-      <c r="T101">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="T101" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -10298,18 +14498,17 @@
         <v>14761069</v>
       </c>
       <c r="Q102" s="6">
-        <f>AVERAGE(J102:P102)</f>
+        <f t="shared" si="4"/>
         <v>13237885.857142856</v>
       </c>
-      <c r="S102" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T102" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T102" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -10357,18 +14556,17 @@
         <v>18425.8</v>
       </c>
       <c r="Q103" s="6">
-        <f>AVERAGE(J103:P103)</f>
+        <f t="shared" si="4"/>
         <v>11159.457142857142</v>
       </c>
-      <c r="S103" t="e">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T103" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S103" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T103" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -10416,18 +14614,17 @@
         <v>0</v>
       </c>
       <c r="Q104" s="6">
-        <f>AVERAGE(J104:P104)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S104">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>112</v>
-      </c>
-      <c r="T104">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S104" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T104" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -10475,18 +14672,17 @@
         <v>160149.9</v>
       </c>
       <c r="Q105" s="6">
-        <f>AVERAGE(J105:P105)</f>
+        <f t="shared" si="4"/>
         <v>122439.91428571429</v>
       </c>
-      <c r="S105">
-        <f>MATCH(Table14[[#This Row],[Geography]],Table13[Country],0)</f>
-        <v>113</v>
-      </c>
-      <c r="T105">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S105" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T105" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -10509,8 +14705,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>793.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S106" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -10533,8 +14732,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>51.25</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S107" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -10557,8 +14759,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>382.25</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S108" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>93</v>
       </c>
@@ -10581,8 +14786,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>218.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S109" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -10605,8 +14813,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>332</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S110" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -10629,8 +14840,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>1829.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S111" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -10653,8 +14867,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>9304.25</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S112" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -10677,8 +14894,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>66.75</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S113" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -10701,8 +14921,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>604.25</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S114" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -10725,8 +14948,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>526.25</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S115" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -10749,8 +14975,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>11.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S116" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -10773,8 +15002,11 @@
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="S117" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -10796,6 +15028,9 @@
       <c r="G118" s="2">
         <f>AVERAGE(Table13[[#This Row],[2017]:[2011]])</f>
         <v>5.5</v>
+      </c>
+      <c r="S118" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
